--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="213">
   <si>
     <t>TR-ID</t>
   </si>
@@ -451,9 +451,6 @@
     <t>+84 977 531528</t>
   </si>
   <si>
-    <t>The home page is displayed when user clicks on the "Điện máy đỏ" logo.</t>
-  </si>
-  <si>
     <t>Người dùng, Đăng ký</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
   </si>
   <si>
     <t>Boundary</t>
-  </si>
-  <si>
-    <t>The home page is displayed when user logged successfully.</t>
   </si>
   <si>
     <t>The "Đổi mật khẩu" form is displayed when user clicks on the "Đổi mật khẩu" link.</t>
@@ -539,9 +533,6 @@
     <t>The home page is loaded successfully when user navigates to the address of "Điện máy đỏ".</t>
   </si>
   <si>
-    <t>Spelling errors are corrected.</t>
-  </si>
-  <si>
     <t>The "Đăng ký" link is displayed when user is not logged in.</t>
   </si>
   <si>
@@ -557,9 +548,6 @@
     <t>The product price has the thousand separator and the unit price "đồng".</t>
   </si>
   <si>
-    <t>The product type is highlight when mouse hovering.</t>
-  </si>
-  <si>
     <t>User is not logged in.</t>
   </si>
   <si>
@@ -578,9 +566,6 @@
     <t>Tài khoản, Giỏ hàng, Thanh toán.</t>
   </si>
   <si>
-    <t>The link's title is in capital.</t>
-  </si>
-  <si>
     <t>The username's info link is displayed when user is logged in.</t>
   </si>
   <si>
@@ -590,9 +575,6 @@
     <t>User can add product into list "Yêu thích".</t>
   </si>
   <si>
-    <t>User can view the product detail information.</t>
-  </si>
-  <si>
     <t>Người dùng</t>
   </si>
   <si>
@@ -614,9 +596,6 @@
     <t>TR-002</t>
   </si>
   <si>
-    <t>User can view the products and the product types.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The holder's border of product is highlighted when mouse hovering. </t>
   </si>
   <si>
@@ -653,9 +632,6 @@
     <t>name@domain.</t>
   </si>
   <si>
-    <t>"Email" textbox is limited from 6 to 20 characters in length.</t>
-  </si>
-  <si>
     <t>The "Đăng ký" button is highlighted when mouse hovering over.</t>
   </si>
   <si>
@@ -665,9 +641,6 @@
     <t>User is registered.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Acer, Canon,…; Laptop, Máy ảnh,...;</t>
-  </si>
-  <si>
     <t>group05dung1/123456</t>
   </si>
   <si>
@@ -677,24 +650,15 @@
     <t>User is logged in.</t>
   </si>
   <si>
-    <t>User can loggout successfully when user clicks on "Đăng xuất" link.</t>
-  </si>
-  <si>
     <t>User can view total cost of "Giỏ hàng".</t>
   </si>
   <si>
-    <t>User can view account information.</t>
-  </si>
-  <si>
     <t>The "Đăng nhập" form is displayed when user clicks "Thanh toán".</t>
   </si>
   <si>
     <t>The error message is displayed when user tries to submit with space only in each of the textbox.</t>
   </si>
   <si>
-    <t>User can recovery password.</t>
-  </si>
-  <si>
     <t>The "Đăng nhập" button is highlighted when mouse hovering over.</t>
   </si>
   <si>
@@ -774,6 +738,48 @@
   </si>
   <si>
     <t>TR-075</t>
+  </si>
+  <si>
+    <t>User can view all the product types.</t>
+  </si>
+  <si>
+    <t>User can view the product's information.</t>
+  </si>
+  <si>
+    <t>The link's name is in capital.</t>
+  </si>
+  <si>
+    <t>"Email" textboxhas a maximum of 30 character in length.</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>User can not pay for products in list "Giỏ  hàng" when user is not logged in.</t>
+  </si>
+  <si>
+    <t>User can recovery the password.</t>
+  </si>
+  <si>
+    <t>Image, Name, Price,..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laptop, Máy ảnh,…</t>
+  </si>
+  <si>
+    <t>User can view account information when user is logged in.</t>
+  </si>
+  <si>
+    <t>User can loggout successfully when user user is logged in.</t>
+  </si>
+  <si>
+    <t>All spelling errors are corrected.</t>
+  </si>
+  <si>
+    <t>The product type's name is highlight when mouse hovering.</t>
+  </si>
+  <si>
+    <t>User can pay for products in "Giỏ hàng" when user is logged in.</t>
   </si>
 </sst>
 </file>
@@ -1449,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1488,7 +1494,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1500,13 +1506,13 @@
         <v>25</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>49</v>
@@ -1514,138 +1520,140 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E15" s="32"/>
     </row>
@@ -1654,13 +1662,13 @@
         <v>51</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E16" s="32"/>
     </row>
@@ -1669,13 +1677,13 @@
         <v>52</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E17" s="32"/>
     </row>
@@ -1684,13 +1692,13 @@
         <v>53</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E18" s="32"/>
     </row>
@@ -1699,13 +1707,13 @@
         <v>54</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E19" s="32"/>
     </row>
@@ -1714,13 +1722,13 @@
         <v>55</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E20" s="32"/>
     </row>
@@ -1729,16 +1737,16 @@
         <v>56</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1746,16 +1754,16 @@
         <v>57</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1763,13 +1771,13 @@
         <v>58</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E23" s="32"/>
     </row>
@@ -1784,7 +1792,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>108</v>
@@ -1795,13 +1803,13 @@
         <v>60</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E25" s="32"/>
     </row>
@@ -1810,13 +1818,13 @@
         <v>61</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E26" s="32"/>
     </row>
@@ -1831,7 +1839,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>105</v>
@@ -1842,16 +1850,16 @@
         <v>63</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1859,13 +1867,13 @@
         <v>64</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E29" s="32"/>
     </row>
@@ -1874,16 +1882,16 @@
         <v>65</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1891,19 +1899,19 @@
         <v>66</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1915,14 +1923,14 @@
         <v>67</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1930,14 +1938,14 @@
         <v>68</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1945,14 +1953,14 @@
         <v>69</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1960,7 +1968,7 @@
         <v>70</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>48</v>
@@ -1973,7 +1981,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>48</v>
@@ -1986,7 +1994,7 @@
         <v>72</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>48</v>
@@ -1999,7 +2007,7 @@
         <v>73</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>48</v>
@@ -2012,10 +2020,10 @@
         <v>74</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="32"/>
@@ -2025,10 +2033,10 @@
         <v>75</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="37"/>
       <c r="E41" s="44"/>
@@ -2038,14 +2046,14 @@
         <v>76</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="45" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2053,10 +2061,10 @@
         <v>77</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="32"/>
@@ -2066,10 +2074,10 @@
         <v>78</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="32"/>
@@ -2079,10 +2087,10 @@
         <v>79</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="32"/>
@@ -2092,7 +2100,7 @@
         <v>80</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>50</v>
@@ -2105,7 +2113,7 @@
         <v>81</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>50</v>
@@ -2115,7 +2123,7 @@
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2127,13 +2135,13 @@
         <v>82</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E49" s="5"/>
     </row>
@@ -2142,7 +2150,7 @@
         <v>83</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C50" s="37" t="s">
         <v>48</v>
@@ -2155,7 +2163,7 @@
         <v>84</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>48</v>
@@ -2168,7 +2176,7 @@
         <v>85</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>48</v>
@@ -2181,7 +2189,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>48</v>
@@ -2194,7 +2202,7 @@
         <v>87</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>48</v>
@@ -2207,14 +2215,14 @@
         <v>88</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C55" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="32" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2222,7 +2230,7 @@
         <v>89</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>48</v>
@@ -2235,10 +2243,10 @@
         <v>90</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="D57" s="37"/>
       <c r="E57" s="32"/>
@@ -2248,10 +2256,10 @@
         <v>91</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="37"/>
       <c r="E58" s="32"/>
@@ -2261,10 +2269,10 @@
         <v>92</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="37"/>
       <c r="E59" s="32"/>
@@ -2274,7 +2282,7 @@
         <v>93</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>50</v>
@@ -2284,7 +2292,7 @@
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2296,7 +2304,7 @@
         <v>94</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>48</v>
@@ -2309,7 +2317,7 @@
         <v>95</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>48</v>
@@ -2322,7 +2330,7 @@
         <v>96</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>48</v>
@@ -2335,7 +2343,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" s="37" t="s">
         <v>48</v>
@@ -2348,7 +2356,7 @@
         <v>98</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>48</v>
@@ -2361,10 +2369,10 @@
         <v>99</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="32"/>
@@ -2374,10 +2382,10 @@
         <v>100</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D68" s="37"/>
       <c r="E68" s="32"/>
@@ -2387,10 +2395,10 @@
         <v>101</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="37"/>
       <c r="E69" s="32"/>
@@ -2400,7 +2408,7 @@
         <v>102</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>50</v>
@@ -2413,7 +2421,7 @@
         <v>103</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>50</v>
@@ -2426,7 +2434,7 @@
         <v>104</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>50</v>
@@ -2436,7 +2444,7 @@
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2445,10 +2453,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>48</v>
@@ -2458,10 +2466,10 @@
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C75" s="37" t="s">
         <v>48</v>
@@ -2471,25 +2479,25 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D76" s="37"/>
       <c r="E76" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>48</v>
@@ -2499,10 +2507,10 @@
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>48</v>
@@ -2512,10 +2520,10 @@
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>48</v>
@@ -2525,10 +2533,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>48</v>
@@ -2538,36 +2546,36 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D82" s="37"/>
       <c r="E82" s="32"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>50</v>
@@ -2577,10 +2585,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>50</v>
@@ -2594,7 +2602,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C86 C88:C65536">
       <formula1>"Functional,Boundary, LooknFeel,Negative"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -566,9 +566,6 @@
     <t>Tài khoản, Giỏ hàng, Thanh toán.</t>
   </si>
   <si>
-    <t>The username's info link is displayed when user is logged in.</t>
-  </si>
-  <si>
     <t>User can add product into list "Giỏ hàng".</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>User can pay for products in "Giỏ hàng" when user is logged in.</t>
+  </si>
+  <si>
+    <t>User can view hot deal's banner.</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1512,7 +1512,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>49</v>
@@ -1520,16 +1520,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="40"/>
     </row>
@@ -1544,7 +1544,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -1553,13 +1553,13 @@
         <v>116</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="32"/>
     </row>
@@ -1574,7 +1574,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="36"/>
     </row>
@@ -1589,7 +1589,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="36"/>
     </row>
@@ -1604,7 +1604,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="32"/>
     </row>
@@ -1613,16 +1613,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,16 +1630,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1647,13 +1647,13 @@
         <v>122</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="32"/>
     </row>
@@ -1662,13 +1662,13 @@
         <v>51</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="32"/>
     </row>
@@ -1677,13 +1677,13 @@
         <v>52</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="32"/>
     </row>
@@ -1692,13 +1692,13 @@
         <v>53</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="32"/>
     </row>
@@ -1707,13 +1707,13 @@
         <v>54</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="32"/>
     </row>
@@ -1722,13 +1722,13 @@
         <v>55</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" s="32"/>
     </row>
@@ -1737,16 +1737,16 @@
         <v>56</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1754,16 +1754,16 @@
         <v>57</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1771,13 +1771,13 @@
         <v>58</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="32"/>
     </row>
@@ -1792,7 +1792,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>108</v>
@@ -1803,13 +1803,13 @@
         <v>60</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="32"/>
     </row>
@@ -1818,13 +1818,13 @@
         <v>61</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="32"/>
     </row>
@@ -1839,7 +1839,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>105</v>
@@ -1850,13 +1850,13 @@
         <v>63</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>140</v>
@@ -1867,13 +1867,13 @@
         <v>64</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="32"/>
     </row>
@@ -1888,10 +1888,10 @@
         <v>50</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1905,7 +1905,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31" s="32"/>
     </row>
@@ -1938,7 +1938,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>48</v>
@@ -1953,14 +1953,14 @@
         <v>69</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>48</v>
@@ -1994,7 +1994,7 @@
         <v>72</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>48</v>
@@ -2007,7 +2007,7 @@
         <v>73</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>48</v>
@@ -2020,7 +2020,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>113</v>
@@ -2033,7 +2033,7 @@
         <v>75</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>113</v>
@@ -2046,14 +2046,14 @@
         <v>76</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2061,7 +2061,7 @@
         <v>77</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>113</v>
@@ -2074,7 +2074,7 @@
         <v>78</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>113</v>
@@ -2087,7 +2087,7 @@
         <v>79</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>113</v>
@@ -2100,7 +2100,7 @@
         <v>80</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>50</v>
@@ -2113,7 +2113,7 @@
         <v>81</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>50</v>
@@ -2135,13 +2135,13 @@
         <v>82</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49" s="5"/>
     </row>
@@ -2163,7 +2163,7 @@
         <v>84</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>48</v>
@@ -2189,7 +2189,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>48</v>
@@ -2202,7 +2202,7 @@
         <v>87</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>48</v>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2230,7 +2230,7 @@
         <v>89</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>48</v>
@@ -2243,10 +2243,10 @@
         <v>90</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D57" s="37"/>
       <c r="E57" s="32"/>
@@ -2256,7 +2256,7 @@
         <v>91</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C58" s="43" t="s">
         <v>113</v>
@@ -2269,7 +2269,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>113</v>
@@ -2282,7 +2282,7 @@
         <v>93</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>50</v>
@@ -2304,7 +2304,7 @@
         <v>94</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>48</v>
@@ -2330,7 +2330,7 @@
         <v>96</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>48</v>
@@ -2356,7 +2356,7 @@
         <v>98</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>48</v>
@@ -2369,7 +2369,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>113</v>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>113</v>
@@ -2395,7 +2395,7 @@
         <v>101</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>113</v>
@@ -2408,7 +2408,7 @@
         <v>102</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>50</v>
@@ -2421,7 +2421,7 @@
         <v>103</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>50</v>
@@ -2434,7 +2434,7 @@
         <v>104</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>50</v>
@@ -2453,10 +2453,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>48</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B75" s="47" t="s">
         <v>114</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>126</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>48</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>48</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>48</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>48</v>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>113</v>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>113</v>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>50</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>50</v>

--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -650,9 +650,6 @@
     <t>User can view total cost of "Giỏ hàng".</t>
   </si>
   <si>
-    <t>The "Đăng nhập" form is displayed when user clicks "Thanh toán".</t>
-  </si>
-  <si>
     <t>The error message is displayed when user tries to submit with space only in each of the textbox.</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>User can view hot deal's banner.</t>
+  </si>
+  <si>
+    <t>User can logged in successfully with a valid account.</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1523,7 @@
         <v>149</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>48</v>
@@ -1553,7 +1553,7 @@
         <v>116</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>48</v>
@@ -1613,7 +1613,7 @@
         <v>120</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>48</v>
@@ -1622,7 +1622,7 @@
         <v>144</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,7 +1630,7 @@
         <v>121</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>48</v>
@@ -1639,7 +1639,7 @@
         <v>144</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1737,7 +1737,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>48</v>
@@ -1754,7 +1754,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>48</v>
@@ -1803,7 +1803,7 @@
         <v>60</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>50</v>
@@ -1818,7 +1818,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>50</v>
@@ -1850,7 +1850,7 @@
         <v>63</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>50</v>
@@ -1981,7 +1981,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>48</v>
@@ -2046,7 +2046,7 @@
         <v>76</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>113</v>
@@ -2135,13 +2135,10 @@
         <v>82</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>48</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>166</v>
       </c>
       <c r="E49" s="5"/>
     </row>
@@ -2163,7 +2160,7 @@
         <v>84</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>48</v>
@@ -2189,7 +2186,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>48</v>
@@ -2202,7 +2199,7 @@
         <v>87</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>48</v>
@@ -2230,7 +2227,7 @@
         <v>89</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>48</v>
@@ -2238,17 +2235,19 @@
       <c r="D56" s="37"/>
       <c r="E56" s="32"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
         <v>90</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="37"/>
+        <v>201</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>166</v>
+      </c>
       <c r="E57" s="32"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2282,7 +2281,7 @@
         <v>93</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>50</v>
@@ -2304,7 +2303,7 @@
         <v>94</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>48</v>
@@ -2330,7 +2329,7 @@
         <v>96</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>48</v>
@@ -2356,7 +2355,7 @@
         <v>98</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>48</v>
@@ -2408,7 +2407,7 @@
         <v>102</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>50</v>
@@ -2421,7 +2420,7 @@
         <v>103</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>50</v>
@@ -2434,7 +2433,7 @@
         <v>104</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>50</v>
@@ -2453,10 +2452,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>48</v>
@@ -2466,7 +2465,7 @@
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B75" s="47" t="s">
         <v>114</v>
@@ -2479,7 +2478,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>126</v>
@@ -2494,10 +2493,10 @@
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>48</v>
@@ -2507,10 +2506,10 @@
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>48</v>
@@ -2520,10 +2519,10 @@
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>48</v>
@@ -2533,10 +2532,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>48</v>
@@ -2546,10 +2545,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>113</v>
@@ -2559,10 +2558,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>113</v>
@@ -2572,10 +2571,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>50</v>
@@ -2585,10 +2584,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>50</v>

--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -493,9 +493,6 @@
     <t>TR-010</t>
   </si>
   <si>
-    <t>All the information in the "Đăng ký thành viên" form are required.</t>
-  </si>
-  <si>
     <t>The "Đăng nhập thất bại" message is displayed when user login with an invalid account.</t>
   </si>
   <si>
@@ -530,18 +527,6 @@
     <t>The "Thông Tin Tài Khoản" page is displayed when user clicks on "Bỏ qua" button.</t>
   </si>
   <si>
-    <t>The home page is loaded successfully when user navigates to the address of "Điện máy đỏ".</t>
-  </si>
-  <si>
-    <t>The "Đăng ký" link is displayed when user is not logged in.</t>
-  </si>
-  <si>
-    <t>The "Đăng ký" link is hidden when user is logged in.</t>
-  </si>
-  <si>
-    <t>The "Đăng ký thành viên" form is displayed when user clicks on "Đăng ký" link.</t>
-  </si>
-  <si>
     <t>The old price is strikethroughed.</t>
   </si>
   <si>
@@ -557,12 +542,6 @@
     <t>All the infomation are required in the "Đăng nhập" form.</t>
   </si>
   <si>
-    <t>The "Đăng nhập" link is displayed when user is not logged in.</t>
-  </si>
-  <si>
-    <t>The "Đăng xuất" link is displayed when user is logged in.</t>
-  </si>
-  <si>
     <t>Tài khoản, Giỏ hàng, Thanh toán.</t>
   </si>
   <si>
@@ -773,13 +752,34 @@
     <t>The product type's name is highlight when mouse hovering.</t>
   </si>
   <si>
-    <t>User can pay for products in "Giỏ hàng" when user is logged in.</t>
-  </si>
-  <si>
     <t>User can view hot deal's banner.</t>
   </si>
   <si>
     <t>User can logged in successfully with a valid account.</t>
+  </si>
+  <si>
+    <t>User can view homepage without logged in.</t>
+  </si>
+  <si>
+    <t>User can order for products in "Giỏ hàng" when user is logged in.</t>
+  </si>
+  <si>
+    <t>User can view the "Đăng ký" link when user is not logged in.</t>
+  </si>
+  <si>
+    <t>User can view the "Đăng xuất" link when user is logged in.</t>
+  </si>
+  <si>
+    <t>User can view the "Đăng nhập" link when user is not logged in.</t>
+  </si>
+  <si>
+    <t>The product of the same type are listed in group.</t>
+  </si>
+  <si>
+    <t>The account's information is save in the database.</t>
+  </si>
+  <si>
+    <t>User can only register an account which account's name is not in database.</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -869,6 +869,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -974,7 +980,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1117,6 +1123,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1455,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1494,25 +1503,25 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>49</v>
@@ -1520,31 +1529,33 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="40"/>
+        <v>137</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>115</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -1553,13 +1564,13 @@
         <v>116</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E9" s="32"/>
     </row>
@@ -1568,13 +1579,13 @@
         <v>117</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E10" s="36"/>
     </row>
@@ -1583,13 +1594,13 @@
         <v>118</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E11" s="36"/>
     </row>
@@ -1598,13 +1609,13 @@
         <v>119</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E12" s="32"/>
     </row>
@@ -1613,16 +1624,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,16 +1641,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1647,13 +1658,13 @@
         <v>122</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E15" s="32"/>
     </row>
@@ -1662,13 +1673,13 @@
         <v>51</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E16" s="32"/>
     </row>
@@ -1677,13 +1688,13 @@
         <v>52</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E17" s="32"/>
     </row>
@@ -1692,13 +1703,13 @@
         <v>53</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E18" s="32"/>
     </row>
@@ -1707,13 +1718,13 @@
         <v>54</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E19" s="32"/>
     </row>
@@ -1722,13 +1733,13 @@
         <v>55</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E20" s="32"/>
     </row>
@@ -1737,16 +1748,16 @@
         <v>56</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1754,16 +1765,16 @@
         <v>57</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1771,13 +1782,13 @@
         <v>58</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E23" s="32"/>
     </row>
@@ -1792,7 +1803,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>108</v>
@@ -1803,13 +1814,13 @@
         <v>60</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E25" s="32"/>
     </row>
@@ -1818,13 +1829,13 @@
         <v>61</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E26" s="32"/>
     </row>
@@ -1839,7 +1850,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>105</v>
@@ -1850,16 +1861,16 @@
         <v>63</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1867,13 +1878,13 @@
         <v>64</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E29" s="32"/>
     </row>
@@ -1882,16 +1893,16 @@
         <v>65</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>144</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1899,13 +1910,13 @@
         <v>66</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E31" s="32"/>
     </row>
@@ -1923,29 +1934,27 @@
         <v>67</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="37"/>
-      <c r="E33" s="32" t="s">
-        <v>135</v>
-      </c>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="32" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1953,22 +1962,22 @@
         <v>69</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="32" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>123</v>
+      <c r="B36" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>48</v>
@@ -1981,7 +1990,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>48</v>
@@ -1994,7 +2003,7 @@
         <v>72</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>48</v>
@@ -2007,7 +2016,7 @@
         <v>73</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>48</v>
@@ -2020,7 +2029,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>113</v>
@@ -2033,7 +2042,7 @@
         <v>75</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>113</v>
@@ -2046,14 +2055,14 @@
         <v>76</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="45" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2061,7 +2070,7 @@
         <v>77</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>113</v>
@@ -2074,7 +2083,7 @@
         <v>78</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>113</v>
@@ -2087,7 +2096,7 @@
         <v>79</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>113</v>
@@ -2100,7 +2109,7 @@
         <v>80</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>50</v>
@@ -2113,7 +2122,7 @@
         <v>81</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>50</v>
@@ -2135,7 +2144,7 @@
         <v>82</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>48</v>
@@ -2147,7 +2156,7 @@
         <v>83</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C50" s="37" t="s">
         <v>48</v>
@@ -2160,7 +2169,7 @@
         <v>84</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>48</v>
@@ -2173,7 +2182,7 @@
         <v>85</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>48</v>
@@ -2186,7 +2195,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>48</v>
@@ -2199,7 +2208,7 @@
         <v>87</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>48</v>
@@ -2212,14 +2221,14 @@
         <v>88</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="32" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2227,7 +2236,7 @@
         <v>89</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>48</v>
@@ -2240,13 +2249,13 @@
         <v>90</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E57" s="32"/>
     </row>
@@ -2255,7 +2264,7 @@
         <v>91</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C58" s="43" t="s">
         <v>113</v>
@@ -2268,7 +2277,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>113</v>
@@ -2281,7 +2290,7 @@
         <v>93</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>50</v>
@@ -2303,7 +2312,7 @@
         <v>94</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>48</v>
@@ -2316,7 +2325,7 @@
         <v>95</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>48</v>
@@ -2329,7 +2338,7 @@
         <v>96</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>48</v>
@@ -2342,7 +2351,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="37" t="s">
         <v>48</v>
@@ -2355,7 +2364,7 @@
         <v>98</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>48</v>
@@ -2368,7 +2377,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>113</v>
@@ -2381,7 +2390,7 @@
         <v>100</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>113</v>
@@ -2394,7 +2403,7 @@
         <v>101</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>113</v>
@@ -2407,7 +2416,7 @@
         <v>102</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>50</v>
@@ -2420,7 +2429,7 @@
         <v>103</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>50</v>
@@ -2433,7 +2442,7 @@
         <v>104</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>50</v>
@@ -2452,10 +2461,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>48</v>
@@ -2465,7 +2474,7 @@
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B75" s="47" t="s">
         <v>114</v>
@@ -2478,25 +2487,25 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D76" s="37"/>
       <c r="E76" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>48</v>
@@ -2506,10 +2515,10 @@
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>48</v>
@@ -2519,10 +2528,10 @@
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>48</v>
@@ -2532,10 +2541,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>48</v>
@@ -2545,10 +2554,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>113</v>
@@ -2558,10 +2567,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>113</v>
@@ -2571,10 +2580,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>50</v>
@@ -2584,10 +2593,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>50</v>
@@ -2600,7 +2609,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C86 C88:C65536">
       <formula1>"Functional,Boundary, LooknFeel,Negative"</formula1>
     </dataValidation>
@@ -2619,7 +2628,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TR List" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="273">
   <si>
     <t>TR-ID</t>
   </si>
@@ -98,21 +98,6 @@
   </si>
   <si>
     <t>Steps to Reproduce</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Section&gt; - For example. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Function</t>
-    </r>
   </si>
   <si>
     <t>&lt;Section&gt; - For example. Function</t>
@@ -781,6 +766,234 @@
   <si>
     <t>User can only register an account which account's name is not in database.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Người dùng, home </t>
+  </si>
+  <si>
+    <t>Verify that user can view homepage without logged in.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Verify that user can order for products in "Giỏ hàng" when user is logged in.</t>
+  </si>
+  <si>
+    <t>1. User logged in to Điện máy đỏ web.
+2. Select "Giỏ hàng".
+3. Observe the list of "Giỏ hàng" is empty.
+4. Select "Thêm vào giỏ hàng" on product "NIKON DI.CAMERA D5600".
+5. Observe the list of "Giỏ hàng" has "NIKON DI.CAMERA D5600".
+6. Select "Giỏ hàng", "Thanh toán".
+7. Observe ther program's navigation.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the "Đăng xuất" link when user is logged in.</t>
+  </si>
+  <si>
+    <t>1. User logged in to Điện máy đỏ web.
+2. Click on "Đăng xuất".
+3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>Verify that user can view hot deal's banner.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Observe the hot deal's banner.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the "Đăng ký" link when user is not logged in.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký".
+3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the "Đăng nhập" link when user is not logged in.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập".
+3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>Verify that user can lookup for existing product by product's name in "máy ảnh".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. On textbox "Nhập tên sản phẩm cần tìm", input: "sony", click on "Tìm".
+3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>User can lookup for existing product by product's name in "máy ảnh".</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Kết quả thiếu chính xác.</t>
+  </si>
+  <si>
+    <t>Verify that user can lookup for existing product product's name in "laptop".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. On textbox "Nhập tên sản phẩm cần tìm", input: "acer", click on "Tìm".
+3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>User can lookup for existing product product's name in "laptop".</t>
+  </si>
+  <si>
+    <t>kết quả không tìm thấy.</t>
+  </si>
+  <si>
+    <t>Verify that user can view all the product types.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Observe the product type in homepage.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the product's information by clicks on product's name.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Canon M10 KIT 15-45mm".
+3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the product's information by clicks on product's image.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on image of "Canon M10 KIT 15-45mm".
+3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>User can view the product's information by clicks on product's image.</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on section "Sản phẩm".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "yêu thích" button of "Canon M10 KIT 15-45mm".
+3. Click on "Yêu thích" button.
+4. Observer the list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>User can add product into list "Yêu thích" on "section "Sản phẩm".</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on section "Bán nhiều nhất".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "yêu thích" button of "Canon 750D + Lens 18-55".
+3. Click on "Yêu thích" button.
+4. Observer the list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>User can add product into list "Yêu thích" on "section "Bán nhiều nhất".</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on product type.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Select "Máy ảnh" tab, Click on "yêu thích" button of "Canon 750D + Lens 18-55".
+3. Click on "Yêu thích" button.
+4. Observer the list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>User can add product into list "Yêu thích" on product type.</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>Verify that user can remove product from list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>List "Yêu thích": Asus Vivobook S14 S410UA, Canon M10 KIT 15-45mm</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "yêu thích" button.
+3. Clicks on remove icon of "Asus Vivobook S14 S410UA".
+4. Observer the list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
+3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
+4. Clicks on "Giỏ hàng" button.
+5. Observer the list "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>Verify that user can view list "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>Verify that user can view list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>Verify that user can view total cost of "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
+3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
+4. Clicks on "Giỏ hàng" button.
+5. Observer the "Tổng tiền" in "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>Verify that user can loggout successfully when user user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>Verify that user can view account information when user is logged in.</t>
+  </si>
+  <si>
+    <t>1. User logged in to Điện máy đỏ web.
+2. Click on "Chào: group05dung1".
+3. Observer the program's navigation.</t>
+  </si>
 </sst>
 </file>
 
@@ -790,7 +1003,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -833,13 +1046,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
@@ -1081,7 +1287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,24 +1314,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1134,7 +1340,34 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1464,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1479,10 +1712,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1503,7 +1736,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1512,417 +1745,417 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>158</v>
+        <v>136</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>107</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1931,208 +2164,208 @@
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="37"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="37"/>
       <c r="E41" s="44"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2141,166 +2374,166 @@
     </row>
     <row r="49" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="37"/>
       <c r="E50" s="32"/>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="41"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="32"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57" s="32"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58" s="37"/>
       <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D59" s="37"/>
       <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" s="37"/>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2309,150 +2542,150 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="37"/>
       <c r="E62" s="32"/>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" s="37"/>
       <c r="E63" s="32"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D64" s="37"/>
       <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D65" s="37"/>
       <c r="E65" s="32"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" s="37"/>
       <c r="E66" s="32"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="37"/>
       <c r="E68" s="32"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D69" s="37"/>
       <c r="E69" s="32"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D70" s="37"/>
       <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" s="37"/>
       <c r="E71" s="32"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" s="37"/>
       <c r="E72" s="32"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2461,145 +2694,145 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D74" s="37"/>
       <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D75" s="37"/>
       <c r="E75" s="32"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" s="37"/>
       <c r="E76" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D77" s="37"/>
       <c r="E77" s="32"/>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D78" s="37"/>
       <c r="E78" s="32"/>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D79" s="37"/>
       <c r="E79" s="32"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D80" s="37"/>
       <c r="E80" s="32"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D82" s="37"/>
       <c r="E82" s="32"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D83" s="46"/>
       <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D84" s="46"/>
       <c r="E84" s="5"/>
@@ -2625,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2680,7 +2913,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>13</v>
@@ -2691,7 +2924,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="16"/>
@@ -2702,158 +2935,555 @@
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B10" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B11" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="C11" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="C12" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="28" t="s">
+      <c r="C15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="B16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="C16" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="26"/>
+      <c r="C17" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I26" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G28:G1048576">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G27">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -2865,7 +3495,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G5:G65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G5:G65527">
       <formula1>"Passed, Failed, Blocked, Skipped"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2935,7 +3565,7 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="16"/>
@@ -2948,7 +3578,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="31"/>
@@ -2961,7 +3591,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="34"/>

--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355"/>
   </bookViews>
   <sheets>
     <sheet name="TR List" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="274">
   <si>
     <t>TR-ID</t>
   </si>
@@ -524,9 +524,6 @@
     <t>The "Đăng nhập" form is displayed when user clicks on Đăng nhập button.</t>
   </si>
   <si>
-    <t>All the infomation are required in the "Đăng nhập" form.</t>
-  </si>
-  <si>
     <t>Tài khoản, Giỏ hàng, Thanh toán.</t>
   </si>
   <si>
@@ -569,9 +566,6 @@
     <t>The "Tài khoản này đã tồn tại" message is displayed when an account is registed.</t>
   </si>
   <si>
-    <t>User can active new account by email.</t>
-  </si>
-  <si>
     <t>The "Đăng ký thành công" message is displayed when user submits valid information.</t>
   </si>
   <si>
@@ -599,9 +593,6 @@
     <t>User can select a date in the datetime picker control for "Ngày sinh".</t>
   </si>
   <si>
-    <t>User is registered.</t>
-  </si>
-  <si>
     <t>group05dung1/123456</t>
   </si>
   <si>
@@ -647,15 +638,9 @@
     <t>User can change the user password when user is logged in.</t>
   </si>
   <si>
-    <t>"Mật khẩu mới" textbox is limited from 6 to 20 characters in length.</t>
-  </si>
-  <si>
     <t>The "Đổi mật khẩu" button is highlighted when mouse hovering over.</t>
   </si>
   <si>
-    <t>"Mật khẩu hiện tại" textbox is limited from 6 to 20 characters in length.</t>
-  </si>
-  <si>
     <t>The "Mật khẩu hiện tại không đúng" message is displayed when user submits an wrong user password in "Mật khẩu hiện tại" textbox.</t>
   </si>
   <si>
@@ -707,9 +692,6 @@
     <t>The link's name is in capital.</t>
   </si>
   <si>
-    <t>"Email" textboxhas a maximum of 30 character in length.</t>
-  </si>
-  <si>
     <t>Negative</t>
   </si>
   <si>
@@ -762,9 +744,6 @@
   </si>
   <si>
     <t>The account's information is save in the database.</t>
-  </si>
-  <si>
-    <t>User can only register an account which account's name is not in database.</t>
   </si>
   <si>
     <t xml:space="preserve">Người dùng, home </t>
@@ -993,6 +972,30 @@
     <t>1. User logged in to Điện máy đỏ web.
 2. Click on "Chào: group05dung1".
 3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>Account is invalid when user do not active account.</t>
+  </si>
+  <si>
+    <t>Account is registered.</t>
+  </si>
+  <si>
+    <t>Account has the user right when user register new account.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu hiện tại" textbox is limited from 5 to 20 characters in length.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu mới" textbox is limited from 5 to 20 characters in length.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu" textbox has a maximum 20 characters in length.</t>
+  </si>
+  <si>
+    <t>"Email" textbox has a maximum of 30 character in length.</t>
+  </si>
+  <si>
+    <t>User can not logged in successfully with an  invalid account.</t>
   </si>
 </sst>
 </file>
@@ -1697,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1739,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1748,13 +1751,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>48</v>
@@ -1762,19 +1765,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1782,13 +1785,13 @@
         <v>114</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -1797,13 +1800,13 @@
         <v>115</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="32"/>
     </row>
@@ -1812,13 +1815,13 @@
         <v>116</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="36"/>
     </row>
@@ -1827,13 +1830,13 @@
         <v>117</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="36"/>
     </row>
@@ -1842,13 +1845,13 @@
         <v>118</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="32"/>
     </row>
@@ -1857,16 +1860,16 @@
         <v>119</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1874,16 +1877,16 @@
         <v>120</v>
       </c>
       <c r="B14" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1891,13 +1894,13 @@
         <v>121</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="32"/>
     </row>
@@ -1906,13 +1909,13 @@
         <v>50</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="32"/>
     </row>
@@ -1921,13 +1924,13 @@
         <v>51</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="32"/>
     </row>
@@ -1936,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="32"/>
     </row>
@@ -1951,13 +1954,13 @@
         <v>53</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="32"/>
     </row>
@@ -1966,13 +1969,13 @@
         <v>54</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="32"/>
     </row>
@@ -1981,16 +1984,16 @@
         <v>55</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1998,16 +2001,16 @@
         <v>56</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2015,13 +2018,13 @@
         <v>57</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="32"/>
     </row>
@@ -2036,7 +2039,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>107</v>
@@ -2047,13 +2050,13 @@
         <v>59</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="32"/>
     </row>
@@ -2062,13 +2065,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="32"/>
     </row>
@@ -2083,7 +2086,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>104</v>
@@ -2094,16 +2097,16 @@
         <v>62</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2111,13 +2114,13 @@
         <v>63</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="32"/>
     </row>
@@ -2132,10 +2135,10 @@
         <v>49</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2149,7 +2152,7 @@
         <v>49</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="32"/>
     </row>
@@ -2167,7 +2170,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>47</v>
@@ -2180,7 +2183,7 @@
         <v>67</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>47</v>
@@ -2195,35 +2198,37 @@
         <v>68</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="32" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>211</v>
+      <c r="B36" s="36" t="s">
+        <v>268</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="37"/>
-      <c r="E36" s="32"/>
+      <c r="E36" s="32" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>47</v>
@@ -2236,7 +2241,7 @@
         <v>71</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>47</v>
@@ -2249,7 +2254,7 @@
         <v>72</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>47</v>
@@ -2262,7 +2267,7 @@
         <v>73</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>112</v>
@@ -2275,7 +2280,7 @@
         <v>74</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>112</v>
@@ -2288,14 +2293,14 @@
         <v>75</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>112</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2303,7 +2308,7 @@
         <v>76</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>112</v>
@@ -2316,7 +2321,7 @@
         <v>77</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>112</v>
@@ -2329,7 +2334,7 @@
         <v>78</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>112</v>
@@ -2342,7 +2347,7 @@
         <v>79</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>49</v>
@@ -2355,7 +2360,7 @@
         <v>80</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>49</v>
@@ -2377,7 +2382,7 @@
         <v>81</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>47</v>
@@ -2402,7 +2407,7 @@
         <v>83</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>47</v>
@@ -2415,7 +2420,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>47</v>
@@ -2428,7 +2433,7 @@
         <v>85</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>47</v>
@@ -2441,7 +2446,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>47</v>
@@ -2461,7 +2466,7 @@
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2469,7 +2474,7 @@
         <v>88</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>47</v>
@@ -2482,13 +2487,13 @@
         <v>89</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E57" s="32"/>
     </row>
@@ -2497,7 +2502,7 @@
         <v>90</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="43" t="s">
         <v>112</v>
@@ -2510,7 +2515,7 @@
         <v>91</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>112</v>
@@ -2523,7 +2528,7 @@
         <v>92</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>49</v>
@@ -2545,7 +2550,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>47</v>
@@ -2571,7 +2576,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>47</v>
@@ -2597,7 +2602,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>47</v>
@@ -2610,7 +2615,7 @@
         <v>98</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>112</v>
@@ -2623,7 +2628,7 @@
         <v>99</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>112</v>
@@ -2636,7 +2641,7 @@
         <v>100</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>112</v>
@@ -2649,7 +2654,7 @@
         <v>101</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>49</v>
@@ -2662,7 +2667,7 @@
         <v>102</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>49</v>
@@ -2675,7 +2680,7 @@
         <v>103</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>49</v>
@@ -2694,10 +2699,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>47</v>
@@ -2707,7 +2712,7 @@
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B75" s="47" t="s">
         <v>113</v>
@@ -2720,7 +2725,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>124</v>
@@ -2735,10 +2740,10 @@
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>47</v>
@@ -2748,10 +2753,10 @@
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>47</v>
@@ -2761,10 +2766,10 @@
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>47</v>
@@ -2774,10 +2779,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>47</v>
@@ -2787,10 +2792,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>112</v>
@@ -2800,10 +2805,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>112</v>
@@ -2813,10 +2818,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>49</v>
@@ -2826,10 +2831,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>49</v>
@@ -2842,7 +2847,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C86 C88:C65536">
       <formula1>"Functional,Boundary, LooknFeel,Negative"</formula1>
     </dataValidation>
@@ -2860,7 +2865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD63"/>
     </sheetView>
   </sheetViews>
@@ -2924,7 +2929,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="16"/>
@@ -2943,22 +2948,22 @@
         <v>35</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I6" s="26"/>
     </row>
@@ -2970,22 +2975,22 @@
         <v>36</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I7" s="26"/>
     </row>
@@ -2997,22 +3002,22 @@
         <v>37</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I8" s="26"/>
     </row>
@@ -3024,20 +3029,20 @@
         <v>38</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I9" s="26"/>
     </row>
@@ -3049,22 +3054,22 @@
         <v>39</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I10" s="26"/>
     </row>
@@ -3076,22 +3081,22 @@
         <v>40</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>215</v>
-      </c>
       <c r="H11" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I11" s="26"/>
     </row>
@@ -3103,23 +3108,23 @@
         <v>41</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -3128,23 +3133,23 @@
         <v>42</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -3155,20 +3160,20 @@
         <v>43</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I14" s="23"/>
     </row>
@@ -3180,20 +3185,20 @@
         <v>42</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I15" s="26"/>
     </row>
@@ -3202,20 +3207,20 @@
         <v>43</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I16" s="26"/>
     </row>
@@ -3227,66 +3232,66 @@
         <v>44</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="28" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="28" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="23" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I19" s="26"/>
     </row>
@@ -3295,25 +3300,25 @@
         <v>50</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I20" s="26"/>
     </row>
@@ -3322,23 +3327,23 @@
         <v>51</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="23" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I21" s="26"/>
     </row>
@@ -3347,23 +3352,23 @@
         <v>52</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="23" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I22" s="26"/>
     </row>
@@ -3372,23 +3377,23 @@
         <v>53</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="23" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I23" s="26"/>
     </row>
@@ -3397,23 +3402,23 @@
         <v>54</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="23" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I24" s="26"/>
     </row>
@@ -3422,25 +3427,25 @@
         <v>55</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I25" s="26"/>
     </row>
@@ -3449,25 +3454,25 @@
         <v>56</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I26" s="26"/>
     </row>

--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TR List" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="482">
   <si>
     <t>TR-ID</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Boundary</t>
   </si>
   <si>
-    <t>The "Đổi mật khẩu" form is displayed when user clicks on the "Đổi mật khẩu" link.</t>
-  </si>
-  <si>
     <t>TR-003</t>
   </si>
   <si>
@@ -484,34 +481,6 @@
     <t>The "Cập nhật thông tin tài khoản" form is displayed when user clicks on the "Cập nhật thông tin tài khoản" button.</t>
   </si>
   <si>
-    <t>All the information in the "Đổi mật khẩu" form are required.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lỗi chính tả: Mật </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Khậu Hiện Tại</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Mật khẩu mới</t>
-    </r>
-  </si>
-  <si>
-    <t>The "Thông Tin Tài Khoản" page is displayed when user clicks on "Bỏ qua" button.</t>
-  </si>
-  <si>
     <t>The old price is strikethroughed.</t>
   </si>
   <si>
@@ -521,9 +490,6 @@
     <t>User is not logged in.</t>
   </si>
   <si>
-    <t>The "Đăng nhập" form is displayed when user clicks on Đăng nhập button.</t>
-  </si>
-  <si>
     <t>Tài khoản, Giỏ hàng, Thanh toán.</t>
   </si>
   <si>
@@ -572,9 +538,6 @@
     <t>"Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
   </si>
   <si>
-    <t>"Mật khẩu" textbox is limited from 6 to 20 characters in length.</t>
-  </si>
-  <si>
     <t>"Họ tên" textbox has a maximum of 20 character in length.</t>
   </si>
   <si>
@@ -623,9 +586,6 @@
     <t>The "Bỏ qua" button is highlighted when mouse hovering over.</t>
   </si>
   <si>
-    <t>All the information are required the "Cập nhật thông tin tài khoản" form.</t>
-  </si>
-  <si>
     <t>The account information is displayed in a table.</t>
   </si>
   <si>
@@ -644,9 +604,6 @@
     <t>The "Mật khẩu hiện tại không đúng" message is displayed when user submits an wrong user password in "Mật khẩu hiện tại" textbox.</t>
   </si>
   <si>
-    <t>The "Thông Tin Tài Khoản" page is displayed when password updates successfully.</t>
-  </si>
-  <si>
     <t>The "Đổi mật khẩu thành công" message is displayed when password updates successfully.</t>
   </si>
   <si>
@@ -695,9 +652,6 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>User can not pay for products in list "Giỏ  hàng" when user is not logged in.</t>
-  </si>
-  <si>
     <t>User can recovery the password.</t>
   </si>
   <si>
@@ -744,9 +698,6 @@
   </si>
   <si>
     <t>The account's information is save in the database.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người dùng, home </t>
   </si>
   <si>
     <t>Verify that user can view homepage without logged in.</t>
@@ -777,225 +728,1148 @@
     <t>Verify that user can view the "Đăng xuất" link when user is logged in.</t>
   </si>
   <si>
+    <t>Verify that user can view hot deal's banner.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Observe the hot deal's banner.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the "Đăng ký" link when user is not logged in.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the "Đăng nhập" link when user is not logged in.</t>
+  </si>
+  <si>
+    <t>Verify that user can lookup for existing product by product's name in "máy ảnh".</t>
+  </si>
+  <si>
+    <t>User can lookup for existing product by product's name in "máy ảnh".</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Kết quả thiếu chính xác.</t>
+  </si>
+  <si>
+    <t>Verify that user can lookup for existing product product's name in "laptop".</t>
+  </si>
+  <si>
+    <t>User can lookup for existing product product's name in "laptop".</t>
+  </si>
+  <si>
+    <t>kết quả không tìm thấy.</t>
+  </si>
+  <si>
+    <t>Verify that user can view all the product types.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Observe the product type in homepage.</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on section "Sản phẩm".</t>
+  </si>
+  <si>
+    <t>User can add product into list "Yêu thích" on "section "Sản phẩm".</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on section "Bán nhiều nhất".</t>
+  </si>
+  <si>
+    <t>User can add product into list "Yêu thích" on "section "Bán nhiều nhất".</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on product type.</t>
+  </si>
+  <si>
+    <t>User can add product into list "Yêu thích" on product type.</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>Verify that user can remove product from list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>List "Yêu thích": Asus Vivobook S14 S410UA, Canon M10 KIT 15-45mm</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>Verify that user can view list "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>Verify that user can view list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>Verify that user can view total cost of "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>Verify that user can loggout successfully when user user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>Verify that user can view account information when user is logged in.</t>
+  </si>
+  <si>
+    <t>Account is invalid when user do not active account.</t>
+  </si>
+  <si>
+    <t>Account is registered.</t>
+  </si>
+  <si>
+    <t>Account has the user right when user register new account.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu" textbox has a maximum 20 characters in length.</t>
+  </si>
+  <si>
+    <t>"Email" textbox has a maximum of 30 character in length.</t>
+  </si>
+  <si>
+    <t>The "Đăng nhập" form is displayed when user clicks on "Đăng nhập" button.</t>
+  </si>
+  <si>
+    <t>User can not logged in successfully with an invalid account.</t>
+  </si>
+  <si>
+    <t>User can not order products in list "Giỏ hàng" when user is not logged in.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>The updated information is save in the database.</t>
+  </si>
+  <si>
+    <t>User can not update information with blanks only.</t>
+  </si>
+  <si>
+    <t>TR-076</t>
+  </si>
+  <si>
+    <t>User can not update information for "Tên đăng nhập","Email","Giới tính","Ngày tháng năm sinh".</t>
+  </si>
+  <si>
+    <t>User can not update the password with blanks only.</t>
+  </si>
+  <si>
+    <t>The "Đổi mật khẩu" form is displayed when user clicks on the "Đổi mật khẩu" button.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu hiện tại" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu mới" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>User can not update the password with an invalid new password.</t>
+  </si>
+  <si>
+    <t>The error message is displayed when password can not updates successfully.</t>
+  </si>
+  <si>
     <t>1. User logged in to Điện máy đỏ web.
 2. Click on "Đăng xuất".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>Verify that user can view hot deal's banner.</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Observe the hot deal's banner.</t>
-  </si>
-  <si>
-    <t>Verify that user can view the "Đăng ký" link when user is not logged in.</t>
+3. Observe the program's navigation.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>Verify that user can view the "Đăng nhập" link when user is not logged in.</t>
+3. Observe the program's navigation.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng nhập".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>Verify that user can lookup for existing product by product's name in "máy ảnh".</t>
+3. Observe the program's navigation.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. On textbox "Nhập tên sản phẩm cần tìm", input: "sony", click on "Tìm".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>User can lookup for existing product by product's name in "máy ảnh".</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Kết quả thiếu chính xác.</t>
-  </si>
-  <si>
-    <t>Verify that user can lookup for existing product product's name in "laptop".</t>
+3. Observe the program's navigation.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. On textbox "Nhập tên sản phẩm cần tìm", input: "acer", click on "Tìm".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>User can lookup for existing product product's name in "laptop".</t>
-  </si>
-  <si>
-    <t>kết quả không tìm thấy.</t>
-  </si>
-  <si>
-    <t>Verify that user can view all the product types.</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Observe the product type in homepage.</t>
-  </si>
-  <si>
-    <t>Verify that user can view the product's information by clicks on product's name.</t>
+3. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the product's information by Click on product's name.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Canon M10 KIT 15-45mm".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>Verify that user can view the product's information by clicks on product's image.</t>
+3. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the product's information by Click on product's image.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on image of "Canon M10 KIT 15-45mm".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>User can view the product's information by clicks on product's image.</t>
-  </si>
-  <si>
-    <t>Verify that user can add product into list "Yêu thích" on section "Sản phẩm".</t>
+3. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>User can view the product's information by Click on product's image.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "yêu thích" button of "Canon M10 KIT 15-45mm".
 3. Click on "Yêu thích" button.
-4. Observer the list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>User can add product into list "Yêu thích" on "section "Sản phẩm".</t>
-  </si>
-  <si>
-    <t>TC-011</t>
-  </si>
-  <si>
-    <t>Verify that user can add product into list "Yêu thích" on section "Bán nhiều nhất".</t>
+4. Observe the list "Yêu thích".</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "yêu thích" button of "Canon 750D + Lens 18-55".
 3. Click on "Yêu thích" button.
-4. Observer the list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>User can add product into list "Yêu thích" on "section "Bán nhiều nhất".</t>
-  </si>
-  <si>
-    <t>TC-012</t>
-  </si>
-  <si>
-    <t>Verify that user can add product into list "Yêu thích" on product type.</t>
+4. Observe the list "Yêu thích".</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Select "Máy ảnh" tab, Click on "yêu thích" button of "Canon 750D + Lens 18-55".
 3. Click on "Yêu thích" button.
-4. Observer the list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>User can add product into list "Yêu thích" on product type.</t>
-  </si>
-  <si>
-    <t>TC-013</t>
-  </si>
-  <si>
-    <t>Verify that user can remove product from list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>List "Yêu thích": Asus Vivobook S14 S410UA, Canon M10 KIT 15-45mm</t>
+4. Observe the list "Yêu thích".</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "yêu thích" button.
-3. Clicks on remove icon of "Asus Vivobook S14 S410UA".
-4. Observer the list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>TC-014</t>
-  </si>
-  <si>
-    <t>Verify that user can add product into list "Giỏ hàng".</t>
+3. Click on remove icon of "Asus Vivobook S14 S410UA".
+4. Observe the list "Yêu thích".</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
 3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
-4. Clicks on "Giỏ hàng" button.
-5. Observer the list "Giỏ hàng".</t>
-  </si>
-  <si>
-    <t>TC-015</t>
-  </si>
-  <si>
-    <t>Verify that user can view list "Giỏ hàng".</t>
-  </si>
-  <si>
-    <t>TC-016</t>
-  </si>
-  <si>
-    <t>Verify that user can view list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>TC-017</t>
-  </si>
-  <si>
-    <t>Verify that user can view total cost of "Giỏ hàng".</t>
+4. Click on "Giỏ hàng" button.
+5. Observe the list "Giỏ hàng".</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
 3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
-4. Clicks on "Giỏ hàng" button.
-5. Observer the "Tổng tiền" in "Giỏ hàng".</t>
-  </si>
-  <si>
-    <t>TC-018</t>
-  </si>
-  <si>
-    <t>Verify that user can loggout successfully when user user is logged in.</t>
-  </si>
-  <si>
-    <t>TC-019</t>
-  </si>
-  <si>
-    <t>Verify that user can view account information when user is logged in.</t>
+4. Click on "Giỏ hàng" button.
+5. Observe the "Tổng tiền" in "Giỏ hàng".</t>
   </si>
   <si>
     <t>1. User logged in to Điện máy đỏ web.
 2. Click on "Chào: group05dung1".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>Account is invalid when user do not active account.</t>
-  </si>
-  <si>
-    <t>Account is registered.</t>
-  </si>
-  <si>
-    <t>Account has the user right when user register new account.</t>
-  </si>
-  <si>
-    <t>"Mật khẩu hiện tại" textbox is limited from 5 to 20 characters in length.</t>
-  </si>
-  <si>
-    <t>"Mật khẩu mới" textbox is limited from 5 to 20 characters in length.</t>
-  </si>
-  <si>
-    <t>"Mật khẩu" textbox has a maximum 20 characters in length.</t>
-  </si>
-  <si>
-    <t>"Email" textbox has a maximum of 30 character in length.</t>
-  </si>
-  <si>
-    <t>User can not logged in successfully with an  invalid account.</t>
+3. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>Verify that the product of the same type are listed in group.</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Click on "laptop".
+3. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>Verify that the mobile phone number follows the format "+84 xxx xxxxxx".</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observe the mobile phone numbers.</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>Verify that the product type's name is highlight when mouse hovering.</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observe the program' navigation.</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>Verify that all spelling errors are corrected in homepage.</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observe the spelling are corrected.</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>Verify that the address info follows the format "street address, district, city".</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observe the address.</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>Verify that the link's name is in capital.</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observe the link's name.</t>
+  </si>
+  <si>
+    <t>Đăng Xuất, ..</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the holder's border of product is highlighted when mouse hovering. </t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observe the border's color.</t>
+  </si>
+  <si>
+    <t>TC-027</t>
+  </si>
+  <si>
+    <t>Verify that the product price has the thousand separator and the unit price "đồng".</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observe the price.</t>
+  </si>
+  <si>
+    <t>100,000 VNĐ</t>
+  </si>
+  <si>
+    <t>TC-028</t>
+  </si>
+  <si>
+    <t>Verify that the old price is strikethroughed.</t>
+  </si>
+  <si>
+    <t>TC-029</t>
+  </si>
+  <si>
+    <t>Verify that user can register new account with valid information.</t>
+  </si>
+  <si>
+    <t>The account name and email are not in database.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung4/123456, Dương Tuấn Dũng, dtdung4@gmail.com, An Giang, 12345678, Name, 1/1/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-030</t>
+  </si>
+  <si>
+    <t>Verify that the account's information is save in the database.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung3/123456.
+4. Click on "Chào: group05dung3".
+5. Observe the account's information.</t>
+  </si>
+  <si>
+    <t>Giới tính được lưu theo giá trị mặc định.</t>
+  </si>
+  <si>
+    <t>TC-031</t>
+  </si>
+  <si>
+    <t>Verify that account is invalid when user do not active account.</t>
+  </si>
+  <si>
+    <t>User is not logged in, and Account is registered.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung3/123456.
+4. Observe the account's information.</t>
+  </si>
+  <si>
+    <t>TC-032</t>
+  </si>
+  <si>
+    <t>Verify that account has the user right when user register new account.</t>
+  </si>
+  <si>
+    <t>TC-033</t>
+  </si>
+  <si>
+    <t>Verify that the error message is displayed when user tries to submit with space only in each of the textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input space only.
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-034</t>
+  </si>
+  <si>
+    <t>Verify that the "Tài khoản này đã tồn tại" message is displayed when an account is registed.</t>
+  </si>
+  <si>
+    <t>The account name is in database.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung2/123456, Dương Tuấn Dũng, dtdung2@gmail.com, An Giang, 12345678, Name, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>Thông báo chưa chính xác: Tài khoản hoặc email đã được sử dụng.</t>
+  </si>
+  <si>
+    <t>TC-035</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng ký thành công" message is displayed when user submits valid information.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung5/123456, Dương Tuấn Dũng, dtdung5@gmail.com, An Giang, 12345678, Name, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-036</t>
+  </si>
+  <si>
+    <t>Verify that the "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information.
+4. Observe the "Tên đăng nhập" textbox.</t>
+  </si>
+  <si>
+    <t>The "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>TC-037</t>
+  </si>
+  <si>
+    <t>Verify that "Mật khẩu" textbox has a maximum 20 characters in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observe the "Mật khẩu" textbox.</t>
+  </si>
+  <si>
+    <t>The "Mật khẩu" textbox has a maximum 20 characters in length.</t>
+  </si>
+  <si>
+    <t>TC-038</t>
+  </si>
+  <si>
+    <t>Verify that "Email" textbox has a maximum of 30 character in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observe the "Email" textbox.</t>
+  </si>
+  <si>
+    <t>The "Email" textbox has a maximum of 30 character in length.</t>
+  </si>
+  <si>
+    <t>TC-039</t>
+  </si>
+  <si>
+    <t>Verify that "Họ tên" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observe the  "Họ tên" textbox.</t>
+  </si>
+  <si>
+    <t>The "Họ tên" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>TC-040</t>
+  </si>
+  <si>
+    <t>Verify that "Địa chỉ" textbox has a maximum of 50 character in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observe the "Địa chỉ" textbox.</t>
+  </si>
+  <si>
+    <t>The "Địa chỉ" textbox has a maximum of 50 character in length.</t>
+  </si>
+  <si>
+    <t>TC-041</t>
+  </si>
+  <si>
+    <t>Verify that "Số điện thoại" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observe the "Số điện thoại" textbox.</t>
+  </si>
+  <si>
+    <t>The "Số điện thoại" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>TC-042</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng ký" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observe the "Đăng ký" button.</t>
+  </si>
+  <si>
+    <t>TC-043</t>
+  </si>
+  <si>
+    <t>Verify that user can select a date in the datetime picker control for "Ngày sinh".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Select information: date.
+4. Observe the "Đăng ký" button.</t>
+  </si>
+  <si>
+    <t>TC-044</t>
+  </si>
+  <si>
+    <t>Verify that user can logged in successfully with a valid account.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: admin/admin@123
+4. Click on "Đăng nhập" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-045</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng nhập" form is displayed when user click on "Đăng nhập" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the program's navigation</t>
+  </si>
+  <si>
+    <t>The "Đăng nhập" form is displayed when user click on "Đăng nhập" button.</t>
+  </si>
+  <si>
+    <t>TC-046</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng nhập thành công" message is displayed when user logged with a valid account.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: admin/admin@123
+4. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-047</t>
+  </si>
+  <si>
+    <t>Verify that user can not logged in successfully with an invalid account.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-048</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input: blanks only.
+4. Click on "Đăng nhập" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-049</t>
+  </si>
+  <si>
+    <t>Verify that the "Mật khẩu không đúng" error message is displayed when user login with wrong password.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/1234567
+4. Click on "Đăng nhập" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>Thông báo chưa chính xác: "kiểm tra lại thông tin tài khoản"</t>
+  </si>
+  <si>
+    <t>TC-050</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng nhập thất bại" message is displayed when user login with an invalid account.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung11/123456
+4. Click on "Đăng nhập" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-051</t>
+  </si>
+  <si>
+    <t>Verify that user can recovery the password.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>TC-052</t>
+  </si>
+  <si>
+    <t>Verify that user can not order products in list "Giỏ hàng" when user is not logged in.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
+3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
+4. Click on "Giỏ hàng" button.
+5. Click "Thanh toán" button".
+6. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>TC-053</t>
+  </si>
+  <si>
+    <t>Verify that "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the "Tên đăng nhập" textbox.</t>
+  </si>
+  <si>
+    <t>TC-054</t>
+  </si>
+  <si>
+    <t>Verify that "Mật khẩu" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the "Mật khẩu" textbox.</t>
+  </si>
+  <si>
+    <t>TC-055</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng nhập" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the "Đăng nhập" button.</t>
+  </si>
+  <si>
+    <t>TC-056</t>
+  </si>
+  <si>
+    <t>Verify that user can update the "Họ tên" when user is logged in.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Họ tên" textbox: Duong Tuan Dung.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>User can update the "Họ tên" when user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-057</t>
+  </si>
+  <si>
+    <t>Verify that user can update the "Địa chỉ" when user is logged in.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Địa chỉ" textbox: tỉnh An Giang.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>User can update the "Địa chỉ" when user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-058</t>
+  </si>
+  <si>
+    <t>Verify that user can update the "Điện thoại" when user is logged in.</t>
+  </si>
+  <si>
+    <t>User can update the "Điện thoại" when user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-059</t>
+  </si>
+  <si>
+    <t>Verify that the "Cập nhật thông tin tài khoản" form is displayed when user click on the "Cập nhật thông tin tài khoản" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>The "Cập nhật thông tin tài khoản" form is displayed when user click on the "Cập nhật thông tin tài khoản" button.</t>
+  </si>
+  <si>
+    <t>TC-060</t>
+  </si>
+  <si>
+    <t>Verify that the updated information is save in the database.</t>
+  </si>
+  <si>
+    <t>TC-061</t>
+  </si>
+  <si>
+    <t>Verify that user can not update information "Họ tên" with blanks only.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Họ tên" textbox: blank only.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>User can not update information "Họ tên" with blanks only.</t>
+  </si>
+  <si>
+    <t>TC-062</t>
+  </si>
+  <si>
+    <t>Verify that user can not update information "Địa chỉ" with blanks only.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Địa chỉ" textbox: blank only.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>User can not update information "Địa chỉ" with blanks only.</t>
+  </si>
+  <si>
+    <t>TC-063</t>
+  </si>
+  <si>
+    <t>Verify that user can not update information "Điện thoại" with blanks only.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Điện thoại" textbox: blanks only.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>User can not update information "Điện thoại" with blanks only.</t>
+  </si>
+  <si>
+    <t>TC-064</t>
+  </si>
+  <si>
+    <t>Verify that user can not update information for "Tên đăng nhập","Email","Giới tính","Ngày tháng năm sinh".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Cập nhật thông tin tài khoản"'s form.</t>
+  </si>
+  <si>
+    <t>TC-066</t>
+  </si>
+  <si>
+    <t>Verify that user can cancel the update information.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Click on "Bỏ qua" button.
+8. Observe the program's form.</t>
+  </si>
+  <si>
+    <t>TC-067</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Tên đăng nhập" textbox.</t>
+  </si>
+  <si>
+    <t>TC-068</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Mật khẩu" textbox.</t>
+  </si>
+  <si>
+    <t>TC-069</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Số điện thoại" textbox.</t>
+  </si>
+  <si>
+    <t>TC-070</t>
+  </si>
+  <si>
+    <t>Verify that the "Cập nhật" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Cập nhật" button.</t>
+  </si>
+  <si>
+    <t>TC-071</t>
+  </si>
+  <si>
+    <t>Verify that the "Bỏ qua" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Bỏ qua" button.</t>
+  </si>
+  <si>
+    <t>TC-072</t>
+  </si>
+  <si>
+    <t>Verify that the account information is displayed in a table.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the table "Thông tin tài khoản".</t>
+  </si>
+  <si>
+    <t>TC-073</t>
+  </si>
+  <si>
+    <t>Verify that user can change the user password when user is logged in.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 123456
+8. Input to "Mật khẩu mới" textbox: 123456
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-074</t>
+  </si>
+  <si>
+    <t>Verify that the "Đổi mật khẩu" form is displayed when user click on the "Đổi mật khẩu" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>The "Đổi mật khẩu" form is displayed when user click on the "Đổi mật khẩu" button.</t>
+  </si>
+  <si>
+    <t>Verify that user can not update the password with blanks only.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 123456
+8. Input to "Mật khẩu mới" textbox: blank only.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-075</t>
+  </si>
+  <si>
+    <t>Verify that user can not update the password that has 5 characters.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 123456
+8. Input to "Mật khẩu mới" textbox: 12345.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>User can not update the password that has 5 characters.</t>
+  </si>
+  <si>
+    <t>TC-076</t>
+  </si>
+  <si>
+    <t>Verify that the "Đổi mật khẩu thành công" message is displayed when password updates successfully.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 123456
+8. Input to "Mật khẩu mới" textbox: 123456.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-077</t>
+  </si>
+  <si>
+    <t>Verify that the error message is displayed when password can not updates successfully.</t>
+  </si>
+  <si>
+    <t>TC-078</t>
+  </si>
+  <si>
+    <t>Verify that the "Mật khẩu hiện tại không đúng" message is displayed when user submits an wrong user password in "Mật khẩu hiện tại" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 12345
+8. Input to "Mật khẩu mới" textbox: 123456.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-079</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Click "Bỏ qua" button.
+8. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>TC-080</t>
+  </si>
+  <si>
+    <t>Verify that "Mật khẩu hiện tại" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Observe the"Mật khẩu hiện tại" textbox.</t>
+  </si>
+  <si>
+    <t>TC-081</t>
+  </si>
+  <si>
+    <t>Verify that "Mật khẩu mới" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Observe the"Mật khẩu mới" textbox.</t>
+  </si>
+  <si>
+    <t>TC-082</t>
+  </si>
+  <si>
+    <t>Verify that the "Đổi mật khẩu" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Observe "Đổi mật khẩu" button.</t>
+  </si>
+  <si>
+    <t>TC-083</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click "Đổi mật khẩu" button.
+6. Observe "BỎ qua" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng, Home </t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1880,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1058,25 +1932,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="7"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -1189,7 +2045,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1317,20 +2173,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1343,7 +2193,142 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1698,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1715,10 +2700,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1739,7 +2724,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1751,13 +2736,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>48</v>
@@ -1765,142 +2750,142 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>154</v>
+        <v>130</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E15" s="32"/>
     </row>
@@ -1909,13 +2894,13 @@
         <v>50</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E16" s="32"/>
     </row>
@@ -1924,13 +2909,13 @@
         <v>51</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E17" s="32"/>
     </row>
@@ -1939,13 +2924,13 @@
         <v>52</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E18" s="32"/>
     </row>
@@ -1954,13 +2939,13 @@
         <v>53</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E19" s="32"/>
     </row>
@@ -1969,13 +2954,13 @@
         <v>54</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E20" s="32"/>
     </row>
@@ -1984,16 +2969,16 @@
         <v>55</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2001,16 +2986,16 @@
         <v>56</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2018,13 +3003,13 @@
         <v>57</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E23" s="32"/>
     </row>
@@ -2039,7 +3024,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>107</v>
@@ -2050,13 +3035,13 @@
         <v>59</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E25" s="32"/>
     </row>
@@ -2065,13 +3050,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E26" s="32"/>
     </row>
@@ -2086,7 +3071,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>104</v>
@@ -2097,16 +3082,16 @@
         <v>62</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2114,13 +3099,13 @@
         <v>63</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E29" s="32"/>
     </row>
@@ -2129,16 +3114,16 @@
         <v>64</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2146,13 +3131,13 @@
         <v>65</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E31" s="32"/>
     </row>
@@ -2170,7 +3155,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>47</v>
@@ -2183,14 +3168,14 @@
         <v>67</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2198,14 +3183,14 @@
         <v>68</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="32" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2213,14 +3198,14 @@
         <v>69</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="32" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -2228,7 +3213,7 @@
         <v>70</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>47</v>
@@ -2241,7 +3226,7 @@
         <v>71</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>47</v>
@@ -2254,7 +3239,7 @@
         <v>72</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>47</v>
@@ -2267,7 +3252,7 @@
         <v>73</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>112</v>
@@ -2280,27 +3265,27 @@
         <v>74</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>112</v>
       </c>
       <c r="D41" s="37"/>
-      <c r="E41" s="44"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>112</v>
       </c>
       <c r="D42" s="37"/>
-      <c r="E42" s="45" t="s">
-        <v>151</v>
+      <c r="E42" s="44" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2308,7 +3293,7 @@
         <v>76</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>112</v>
@@ -2321,7 +3306,7 @@
         <v>77</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>112</v>
@@ -2334,7 +3319,7 @@
         <v>78</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>112</v>
@@ -2347,7 +3332,7 @@
         <v>79</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C46" s="37" t="s">
         <v>49</v>
@@ -2360,7 +3345,7 @@
         <v>80</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>49</v>
@@ -2382,7 +3367,7 @@
         <v>81</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>47</v>
@@ -2394,7 +3379,7 @@
         <v>82</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="C50" s="37" t="s">
         <v>47</v>
@@ -2407,7 +3392,7 @@
         <v>83</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>47</v>
@@ -2420,7 +3405,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>47</v>
@@ -2433,7 +3418,7 @@
         <v>85</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>47</v>
@@ -2446,7 +3431,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>47</v>
@@ -2459,14 +3444,14 @@
         <v>87</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2474,7 +3459,7 @@
         <v>88</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>47</v>
@@ -2487,13 +3472,13 @@
         <v>89</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E57" s="32"/>
     </row>
@@ -2502,9 +3487,9 @@
         <v>90</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="37" t="s">
         <v>112</v>
       </c>
       <c r="D58" s="37"/>
@@ -2515,9 +3500,9 @@
         <v>91</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="37" t="s">
         <v>112</v>
       </c>
       <c r="D59" s="37"/>
@@ -2528,7 +3513,7 @@
         <v>92</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>49</v>
@@ -2550,7 +3535,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>47</v>
@@ -2563,7 +3548,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>47</v>
@@ -2576,33 +3561,33 @@
         <v>95</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D64" s="37"/>
-      <c r="E64" s="44"/>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="E64" s="43"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
         <v>96</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="D65" s="37"/>
       <c r="E65" s="32"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="42" t="s">
-        <v>167</v>
+      <c r="B66" s="36" t="s">
+        <v>251</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>47</v>
@@ -2614,11 +3599,11 @@
       <c r="A67" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="36" t="s">
-        <v>146</v>
+      <c r="B67" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="32"/>
@@ -2628,7 +3613,7 @@
         <v>99</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>112</v>
@@ -2641,7 +3626,7 @@
         <v>100</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>112</v>
@@ -2654,10 +3639,10 @@
         <v>101</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D70" s="37"/>
       <c r="E70" s="32"/>
@@ -2667,7 +3652,7 @@
         <v>102</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>49</v>
@@ -2680,7 +3665,7 @@
         <v>103</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>49</v>
@@ -2688,34 +3673,34 @@
       <c r="D72" s="37"/>
       <c r="E72" s="32"/>
     </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="37"/>
+      <c r="E73" s="32"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B74" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" s="47" t="s">
-        <v>113</v>
+        <v>166</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="C75" s="37" t="s">
         <v>47</v>
@@ -2723,40 +3708,38 @@
       <c r="D75" s="37"/>
       <c r="E75" s="32"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>124</v>
+        <v>167</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>253</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D76" s="37"/>
-      <c r="E76" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="E76" s="32"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="47" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>256</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="D77" s="37"/>
       <c r="E77" s="32"/>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B78" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>47</v>
@@ -2766,10 +3749,10 @@
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B79" s="47" t="s">
         <v>170</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>257</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>47</v>
@@ -2777,12 +3760,12 @@
       <c r="D79" s="37"/>
       <c r="E79" s="32"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B80" s="47" t="s">
-        <v>167</v>
+        <v>171</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>47</v>
@@ -2792,23 +3775,23 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B81" s="47" t="s">
-        <v>269</v>
+        <v>172</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B82" s="47" t="s">
-        <v>270</v>
+        <v>173</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>254</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>112</v>
@@ -2818,29 +3801,42 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83" s="47" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>255</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="46"/>
-      <c r="E83" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="D83" s="37"/>
+      <c r="E83" s="32"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" s="47" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>162</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="46"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="45"/>
+      <c r="E85" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2848,7 +3844,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C86 C88:C65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89:C65537 C6:C87">
       <formula1>"Functional,Boundary, LooknFeel,Negative"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2863,10 +3859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A93" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2929,7 +3925,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>205</v>
+        <v>481</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="16"/>
@@ -2948,22 +3944,22 @@
         <v>35</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F6" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>208</v>
-      </c>
       <c r="H6" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I6" s="26"/>
     </row>
@@ -2975,22 +3971,22 @@
         <v>36</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I7" s="26"/>
     </row>
@@ -3002,22 +3998,22 @@
         <v>37</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I8" s="26"/>
     </row>
@@ -3029,20 +4025,20 @@
         <v>38</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I9" s="26"/>
     </row>
@@ -3054,22 +4050,22 @@
         <v>39</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I10" s="26"/>
     </row>
@@ -3081,22 +4077,22 @@
         <v>40</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I11" s="26"/>
     </row>
@@ -3108,23 +4104,23 @@
         <v>41</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -3133,23 +4129,23 @@
         <v>42</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -3160,20 +4156,20 @@
         <v>43</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I14" s="23"/>
     </row>
@@ -3185,20 +4181,20 @@
         <v>42</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I15" s="26"/>
     </row>
@@ -3207,20 +4203,20 @@
         <v>43</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I16" s="26"/>
     </row>
@@ -3232,66 +4228,66 @@
         <v>44</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="28" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="28" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="23" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I19" s="26"/>
     </row>
@@ -3300,25 +4296,25 @@
         <v>50</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I20" s="26"/>
     </row>
@@ -3327,23 +4323,23 @@
         <v>51</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="23" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I21" s="26"/>
     </row>
@@ -3352,23 +4348,23 @@
         <v>52</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="23" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I22" s="26"/>
     </row>
@@ -3377,23 +4373,23 @@
         <v>53</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="23" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I23" s="26"/>
     </row>
@@ -3402,23 +4398,23 @@
         <v>54</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="23" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I24" s="26"/>
     </row>
@@ -3427,25 +4423,25 @@
         <v>55</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I25" s="26"/>
     </row>
@@ -3454,30 +4450,1772 @@
         <v>56</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D26" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="F55" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="G55" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="H56" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I66" s="26"/>
+    </row>
+    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I76" s="26"/>
+    </row>
+    <row r="77" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A77" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I78" s="26"/>
+    </row>
+    <row r="79" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I80" s="26"/>
+    </row>
+    <row r="81" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I81" s="26"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19"/>
+    </row>
+    <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I83" s="26"/>
+    </row>
+    <row r="84" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I84" s="26"/>
+    </row>
+    <row r="85" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D85" s="24"/>
+      <c r="E85" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I86" s="26"/>
+    </row>
+    <row r="87" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I87" s="26"/>
+    </row>
+    <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I89" s="26"/>
+    </row>
+    <row r="90" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I90" s="26"/>
+    </row>
+    <row r="91" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I91" s="26"/>
+    </row>
+    <row r="92" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="D92" s="24"/>
+      <c r="E92" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I94" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G28:G1048576">
+  <conditionalFormatting sqref="G96:G1048576">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G35 G95">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G51">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:G64">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:G81">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -3488,7 +6226,7 @@
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G27">
+  <conditionalFormatting sqref="G82:G94">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -3500,7 +6238,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G5:G65527">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G65500 G1:G3">
       <formula1>"Passed, Failed, Blocked, Skipped"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TR List" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Bug Report" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TC List'!$A$4:$I$94</definedName>
     <definedName name="passfail">#REF!</definedName>
     <definedName name="resolution">#REF!</definedName>
     <definedName name="status">#REF!</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="547">
   <si>
     <t>TR-ID</t>
   </si>
@@ -98,9 +99,6 @@
   </si>
   <si>
     <t>Steps to Reproduce</t>
-  </si>
-  <si>
-    <t>&lt;Section&gt; - For example. Function</t>
   </si>
   <si>
     <t>TR-001</t>
@@ -787,9 +785,6 @@
     <t>TC-012</t>
   </si>
   <si>
-    <t>Verify that user can add product into list "Yêu thích" on product type.</t>
-  </si>
-  <si>
     <t>User can add product into list "Yêu thích" on product type.</t>
   </si>
   <si>
@@ -947,12 +942,6 @@
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "yêu thích" button of "Canon 750D + Lens 18-55".
-3. Click on "Yêu thích" button.
-4. Observe the list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Select "Máy ảnh" tab, Click on "yêu thích" button of "Canon 750D + Lens 18-55".
 3. Click on "Yêu thích" button.
 4. Observe the list "Yêu thích".</t>
   </si>
@@ -1087,13 +1076,6 @@
     <t>The account name and email are not in database.</t>
   </si>
   <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Đăng ký" link.
-3. Input information: group05dung4/123456, Dương Tuấn Dũng, dtdung4@gmail.com, An Giang, 12345678, Name, 1/1/1983
-4. Click on "Đăng ký" button.
-5. Observe the program's dialog.</t>
-  </si>
-  <si>
     <t>TC-030</t>
   </si>
   <si>
@@ -1107,9 +1089,6 @@
 5. Observe the account's information.</t>
   </si>
   <si>
-    <t>Giới tính được lưu theo giá trị mặc định.</t>
-  </si>
-  <si>
     <t>TC-031</t>
   </si>
   <si>
@@ -1147,19 +1126,9 @@
     <t>TC-034</t>
   </si>
   <si>
-    <t>Verify that the "Tài khoản này đã tồn tại" message is displayed when an account is registed.</t>
-  </si>
-  <si>
     <t>The account name is in database.</t>
   </si>
   <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Đăng ký" link.
-3. Input information: group05dung2/123456, Dương Tuấn Dũng, dtdung2@gmail.com, An Giang, 12345678, Name, 11/11/1983
-4. Click on "Đăng ký" button.
-5. Observe the program's dialog.</t>
-  </si>
-  <si>
     <t>Thông báo chưa chính xác: Tài khoản hoặc email đã được sử dụng.</t>
   </si>
   <si>
@@ -1167,13 +1136,6 @@
   </si>
   <si>
     <t>Verify that the "Đăng ký thành công" message is displayed when user submits valid information.</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Đăng ký" link.
-3. Input information: group05dung5/123456, Dương Tuấn Dũng, dtdung5@gmail.com, An Giang, 12345678, Name, 11/11/1983
-4. Click on "Đăng ký" button.
-5. Observe the program's dialog.</t>
   </si>
   <si>
     <t>TC-036</t>
@@ -1870,6 +1832,328 @@
   </si>
   <si>
     <t xml:space="preserve">Người dùng, Home </t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web, "section "Bán nhiều nhất".
+2. Click on "yêu thích" button of "Canon 750D + Lens 18-55".
+3. Click on "Yêu thích" button.
+4. Observe the list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on tab product type.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web, select "Laptop" tab.
+2. Select "Máy ảnh" tab, Click on "yêu thích" button of "Canon 750D + Lens 18-55".
+3. Click on "Yêu thích" button.
+4. Observe the list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>Giới tính được lưu theo giá trị mặc định là nữ.</t>
+  </si>
+  <si>
+    <t>Verify that the "Tài khoản này đã tồn tại" message is displayed when an account is registered.</t>
+  </si>
+  <si>
+    <t>The "Tài khoản này đã tồn tại" message is displayed when an account is registered.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung4/123456, Dương Tuấn Dũng, dtdung4@gmail.com, An Giang, 12345678, Nam, 1/1/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung2/123456, Dương Tuấn Dũng, dtdung2@gmail.com, An Giang, 12345678, Nam, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung5/123456, Dương Tuấn Dũng, dtdung5@gmail.com, An Giang, 12345678, Nam, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>Dung Duong</t>
+  </si>
+  <si>
+    <t>Buttons are not highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>Button are not highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Đăng ký, Đăng nhập, Cập nhật thông tin tài khoản, Đổi mật khẩu,</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Observe the "Đăng ký" button.
+Observed Result: "Đăng ký" button is not highlighted.
+Expected Result: "Đăng ký button is highlighted.</t>
+  </si>
+  <si>
+    <t>The searching's result is not match with the existing products.</t>
+  </si>
+  <si>
+    <t>The result is not found or not complete when searching for product name like acer in "Tìm kiếm sản phẩm" menu.</t>
+  </si>
+  <si>
+    <t>Serious</t>
+  </si>
+  <si>
+    <t>"Tìm kiếm sản phẩm"</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. On textbox "Nhập tên sản phẩm cần tìm", input: "acer", click on "Tìm".
+3. Observe the program's result.
+Observed Result: "không có dữ liệu".
+Expected Result: the products name with "acer"</t>
+  </si>
+  <si>
+    <t>Bug-0003</t>
+  </si>
+  <si>
+    <t>User can not use the Enter key for searching like "Tìm" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. On textbox "Nhập tên sản phẩm cần tìm", input: "acer", press Enter key.
+3. Observe the program's result.
+Observed Result: the homepage is loaded.
+Expected Result: the products name with "acer"</t>
+  </si>
+  <si>
+    <t>Bug-0004</t>
+  </si>
+  <si>
+    <t>The linking from product's image to the product detail page is not avaiable.</t>
+  </si>
+  <si>
+    <t>User can not view the product detail page by click on the product's image.</t>
+  </si>
+  <si>
+    <t>Home, Sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on image of "Canon M10 KIT 15-45mm".
+3. Observe the program's navigation.
+Observed Result: the page is not redirected. 
+Expected Result: the products detail page is displayed.</t>
+  </si>
+  <si>
+    <t>Bug-0005</t>
+  </si>
+  <si>
+    <t>User can not add item to "Yêu thích" list by click on the "Yêu thích" button in the section"Bán nhiều nhất" and the tab product.</t>
+  </si>
+  <si>
+    <t>Home, Yêu thích</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web, "section "Bán nhiều nhất".
+2. Click on "yêu thích" button of "Canon 750D + Lens 18-55".
+3. Click on "Yêu thích" button.
+4. Observe the list "Yêu thích".
+Observed Result: the selected item is not add to "Yêu thích". 
+Expected Result: "Thêm vào giỏ hàng thành công" message is displayed.</t>
+  </si>
+  <si>
+    <t>Bug-0006</t>
+  </si>
+  <si>
+    <t>The mobile phone number does not follow the format "+84 xxx xxxxxx".</t>
+  </si>
+  <si>
+    <t>The mobile phone number does not follows the format "+84 xxx xxxxxx".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web, 
+2. Observe the mobile phone number.
+Observed Result: +84977-53-15-28
+Expected Result: +84 977 531528</t>
+  </si>
+  <si>
+    <t>Bug-0007</t>
+  </si>
+  <si>
+    <t>The address info does not follow the format "street address, district, city".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web, 
+2. Observe the address.
+Observed Result: Cần Thơ
+Expected Result: 1 Lý Tự Trọng, Ninh Kiều, Cần Thơ.</t>
+  </si>
+  <si>
+    <t>Bug-0008</t>
+  </si>
+  <si>
+    <t>The link's name format style is not the same in some pages.</t>
+  </si>
+  <si>
+    <t>Home, Đăng nhập, Đăng ký, Cập nhật thông tin, Đổi mật khẩu.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web, 
+2. Observe the link's name: Đăng nhập.
+Observed Result: Đăng Nhập
+Expected Result: Đăng nhập</t>
+  </si>
+  <si>
+    <t>Bug-0009</t>
+  </si>
+  <si>
+    <t>The account's "Giới tính" information is saved as "Nữ" in the database.</t>
+  </si>
+  <si>
+    <t>Home, Đăng ký</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung6/123456, Dương Tuấn Dũng, dtdung6@gmail.com, An Giang, 12345678, Nam, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.
+6. Click on "Đăng nhâp" link.
+7. Input information: group05dung6/123456
+8. Click on "Chào: group05dung6".
+9. Observed Giới tính info.
+Observed Result: Nữ
+Expected Result: Nam</t>
+  </si>
+  <si>
+    <t>Bug-0010</t>
+  </si>
+  <si>
+    <t>Account is valid when user do not active account.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung8/123456, Dương Tuấn Dũng, dtdung8@gmail.com, An Giang, 12345678, Nam, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.
+6. Click on "Đăng nhâp" link.
+7. Input information: group05dung6/123456
+8. Click on "Chào: group05dung8".
+9. Observed program' dialog.
+Observed Result: Account is logged successfully.
+Expected Result: "Tài khoản chưa kích hoạt" message is displayed.</t>
+  </si>
+  <si>
+    <t>Incorrect message "Tài khoản hoặc email đã được sử dụng" when account name is registered.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung2/123456, Dương Tuấn Dũng, dtdung2@gmail.com, An Giang, 12345678, Nam, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.
+Observed Result: "Tài khoản hoặc email đã được sử dụng" message is displayed.
+Expected Result: "Tài khoản này đã tồn tại" message is displayed.</t>
+  </si>
+  <si>
+    <t>Bug-0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The textbox's length is used more space in the form. . </t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web, 
+2. Click on "Đăng nhập" link.
+3. Observe the form "Đăng nhập".
+Observed Result: the length of textbox in the form almost equal the width of the page.
+Expected Result: the length of textbox in the form fixed nicely the width of the page.</t>
+  </si>
+  <si>
+    <t>Bug-0012</t>
+  </si>
+  <si>
+    <t>User can not select the year before 1970.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký".
+3. Observe the "chọn năm" listbox.
+Observed Result: a fixed year form 1970 to 2018.
+Expected Result: Datetime picker.</t>
+  </si>
+  <si>
+    <t>Bug-0013</t>
+  </si>
+  <si>
+    <t>Incorrected message: "kiểm tra lại thông tin tài khoản" when user login with wrong password.</t>
+  </si>
+  <si>
+    <t>Home, Đăng nhập.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập".
+3. Input: group05dung2/12345633
+4. Observe the program'dialog
+Observed Result: "Kiểm tra lại thông tin tài khoản" message is displayed.
+Expected Result: "Sai mật khẩu" message is displayed.</t>
+  </si>
+  <si>
+    <t>Bug-0014</t>
+  </si>
+  <si>
+    <t>User can not recovery the password.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập".
+4. Observe the form.
+Observed Result: No information for recovery the password.
+Expected Result: "Khôi phục mật khẩu" link is displayed.</t>
+  </si>
+  <si>
+    <t>Bug-0015</t>
+  </si>
+  <si>
+    <t>Form "Cập nhật thông tin tải khoản" does not required the update information "Họ tên".</t>
+  </si>
+  <si>
+    <t>Home, Cập nhật tài khoản.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web. User logged in.
+2. Click on "Cập nhật thông tin tài khoản".
+3. Input "Họ tên" textbox: blank only.
+4. Click on "Cập nhật" button.
+5. Observe account information.
+Observed Result: "Cập nhật thành công" message is displayed.
+Expected Result: Error message is displayed.</t>
+  </si>
+  <si>
+    <t>Bug-0016</t>
+  </si>
+  <si>
+    <t>Form "Cập nhật thông tin tải khoản" does not required the update information "Địa chỉ".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web. User logged in.
+2. Click on "Cập nhật thông tin tài khoản".
+3. Input "Địa chỉ" textbox: blank only.
+4. Click on "Cập nhật" button.
+5. Observe account information.
+Observed Result: "Cập nhật thành công" message is displayed.
+Expected Result: Error message is displayed.</t>
   </si>
 </sst>
 </file>
@@ -2146,9 +2430,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2186,6 +2467,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -2193,34 +2477,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -2685,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2700,10 +2957,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2724,7 +2981,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2733,417 +2990,417 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>148</v>
+        <v>134</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>130</v>
+        <v>112</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="36"/>
+        <v>114</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="36"/>
+        <v>115</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>130</v>
+        <v>118</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>130</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>130</v>
+        <v>50</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>130</v>
+        <v>51</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>130</v>
+        <v>52</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>130</v>
+        <v>53</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>130</v>
+        <v>54</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>130</v>
+        <v>55</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>130</v>
+        <v>56</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>106</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>130</v>
+        <v>58</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>130</v>
+        <v>59</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>130</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>130</v>
+        <v>62</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>130</v>
+        <v>63</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>130</v>
+        <v>64</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3152,210 +3409,210 @@
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="37"/>
+        <v>65</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="36"/>
       <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="37"/>
+        <v>66</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="36"/>
       <c r="E34" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="37"/>
+        <v>67</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="36"/>
       <c r="E35" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="37"/>
+        <v>68</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="36"/>
       <c r="E36" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="36"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="36"/>
       <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="36"/>
       <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="36"/>
       <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="43"/>
+        <v>73</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="42"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="44" t="s">
-        <v>145</v>
+        <v>74</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="43" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="37"/>
+        <v>75</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="36"/>
       <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="37"/>
+        <v>76</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="36"/>
       <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="37"/>
+        <v>77</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="36"/>
       <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="37"/>
+        <v>78</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="36"/>
       <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="37"/>
+        <v>79</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="36"/>
       <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3364,166 +3621,166 @@
     </row>
     <row r="49" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>47</v>
+        <v>80</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="37"/>
+        <v>81</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="36"/>
       <c r="E50" s="32"/>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="41"/>
+        <v>82</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="36"/>
       <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="37"/>
+        <v>84</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="36"/>
       <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="37"/>
+        <v>85</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="36"/>
       <c r="E54" s="32"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="37"/>
+        <v>86</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="36"/>
       <c r="E55" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="37"/>
+        <v>87</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="36"/>
       <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>149</v>
+        <v>88</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>148</v>
       </c>
       <c r="E57" s="32"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="37"/>
+        <v>89</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="36"/>
       <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="37"/>
+        <v>90</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="36"/>
       <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="37"/>
+        <v>91</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="36"/>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3532,163 +3789,163 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="37"/>
+        <v>92</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="36"/>
       <c r="E62" s="32"/>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="37"/>
+        <v>93</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="36"/>
       <c r="E63" s="32"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="43"/>
+        <v>94</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="36"/>
+      <c r="E64" s="42"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="37"/>
+        <v>95</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="36"/>
       <c r="E65" s="32"/>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="37"/>
+        <v>96</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="36"/>
       <c r="E66" s="32"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="37"/>
+        <v>97</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="36"/>
       <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="37"/>
+        <v>98</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="36"/>
       <c r="E68" s="32"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="37"/>
+        <v>99</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="36"/>
       <c r="E69" s="32"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" s="37"/>
+        <v>100</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="36"/>
       <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="36"/>
       <c r="E71" s="32"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="37"/>
+        <v>102</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="36"/>
       <c r="E72" s="32"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="37"/>
+        <v>164</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="36"/>
       <c r="E73" s="32"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3697,145 +3954,145 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="37"/>
+        <v>165</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="36"/>
       <c r="E75" s="32"/>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="37"/>
+        <v>166</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="36"/>
       <c r="E76" s="32"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D77" s="37"/>
+        <v>167</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="36"/>
       <c r="E77" s="32"/>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="37"/>
+        <v>168</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="36"/>
       <c r="E78" s="32"/>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="37"/>
+        <v>169</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="36"/>
       <c r="E79" s="32"/>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="37"/>
+        <v>170</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="36"/>
       <c r="E80" s="32"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="36"/>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B82" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" s="37"/>
+        <v>172</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="36"/>
       <c r="E82" s="32"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="37"/>
+        <v>173</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="36"/>
       <c r="E83" s="32"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B84" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="45"/>
+        <v>174</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="44"/>
       <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="45"/>
+        <v>248</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="44"/>
       <c r="E85" s="5"/>
     </row>
   </sheetData>
@@ -3861,8 +4118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A93" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3914,7 +4171,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>13</v>
@@ -3925,7 +4182,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="16"/>
@@ -3938,774 +4195,774 @@
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>198</v>
-      </c>
       <c r="H6" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>201</v>
-      </c>
       <c r="F7" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>205</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>204</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F12" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>209</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F13" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>218</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>219</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23" t="s">
-        <v>269</v>
+        <v>474</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>222</v>
+        <v>475</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="23" t="s">
-        <v>270</v>
+        <v>476</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>226</v>
-      </c>
       <c r="E20" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I35" s="26"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="16"/>
@@ -4718,398 +4975,398 @@
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>307</v>
+        <v>480</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>311</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="23" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>322</v>
+        <v>478</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>324</v>
+        <v>481</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>139</v>
+        <v>479</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>328</v>
+        <v>482</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="23" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="23" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I45" s="23"/>
     </row>
     <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="23" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I46" s="23"/>
     </row>
     <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="23" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="23" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I51" s="23"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="16"/>
@@ -5122,331 +5379,331 @@
     </row>
     <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="23" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I59" s="23"/>
     </row>
     <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="1:9" ht="120" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I61" s="23"/>
     </row>
     <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I62" s="23"/>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I63" s="23"/>
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I64" s="23"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="16"/>
@@ -5459,409 +5716,409 @@
     </row>
     <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I66" s="26"/>
     </row>
     <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="22" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="22" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="23" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I71" s="26"/>
     </row>
     <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="22" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D72" s="24"/>
       <c r="E72" s="23" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I72" s="26"/>
     </row>
     <row r="73" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A73" s="21"/>
       <c r="B73" s="22" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="23" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I73" s="26"/>
     </row>
     <row r="74" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="23" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="120" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D75" s="24"/>
       <c r="E75" s="23" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I75" s="26"/>
     </row>
     <row r="76" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="23" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="23" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="23" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="23" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I79" s="26"/>
     </row>
     <row r="80" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="23" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I80" s="26"/>
     </row>
     <row r="81" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="23" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I81" s="26"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="16"/>
@@ -5874,311 +6131,311 @@
     </row>
     <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D83" s="24"/>
       <c r="E83" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I83" s="26"/>
     </row>
     <row r="84" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D84" s="24"/>
       <c r="E84" s="23" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D85" s="24"/>
       <c r="E85" s="23" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I85" s="26"/>
     </row>
     <row r="86" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="22" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I86" s="26"/>
     </row>
     <row r="87" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="23" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I87" s="26"/>
     </row>
     <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D88" s="24"/>
       <c r="E88" s="23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I88" s="26"/>
     </row>
     <row r="89" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D89" s="24"/>
       <c r="E89" s="23" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I89" s="26"/>
     </row>
     <row r="90" spans="1:9" ht="120" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D90" s="24"/>
       <c r="E90" s="23" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I90" s="26"/>
     </row>
     <row r="91" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="23" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I91" s="26"/>
     </row>
     <row r="92" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D92" s="24"/>
       <c r="E92" s="23" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I92" s="26"/>
     </row>
     <row r="93" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="23" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I93" s="26"/>
     </row>
     <row r="94" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D94" s="24"/>
       <c r="E94" s="23" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I94" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G96:G1048576">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6250,10 +6507,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6308,7 +6565,7 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="16"/>
@@ -6319,38 +6576,458 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+      <c r="B7" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>494</v>
+      </c>
       <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" ht="165" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="195" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>546</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E22">
       <formula1>"Critical,Serious, Minor, Tweak"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G65527">
       <formula1>"Always,Intermittent,Never"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TR List" sheetId="2" r:id="rId1"/>
@@ -1916,33 +1916,16 @@
     <t>"Tìm kiếm sản phẩm"</t>
   </si>
   <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. On textbox "Nhập tên sản phẩm cần tìm", input: "acer", click on "Tìm".
-3. Observe the program's result.
-Observed Result: "không có dữ liệu".
-Expected Result: the products name with "acer"</t>
-  </si>
-  <si>
     <t>Bug-0003</t>
   </si>
   <si>
     <t>User can not use the Enter key for searching like "Tìm" button.</t>
   </si>
   <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. On textbox "Nhập tên sản phẩm cần tìm", input: "acer", press Enter key.
-3. Observe the program's result.
-Observed Result: the homepage is loaded.
-Expected Result: the products name with "acer"</t>
-  </si>
-  <si>
     <t>Bug-0004</t>
   </si>
   <si>
     <t>The linking from product's image to the product detail page is not avaiable.</t>
-  </si>
-  <si>
-    <t>User can not view the product detail page by click on the product's image.</t>
   </si>
   <si>
     <t>Home, Sản phẩm</t>
@@ -1964,21 +1947,10 @@
     <t>Home, Yêu thích</t>
   </si>
   <si>
-    <t>1. Navigate to Điện máy đỏ web, "section "Bán nhiều nhất".
-2. Click on "yêu thích" button of "Canon 750D + Lens 18-55".
-3. Click on "Yêu thích" button.
-4. Observe the list "Yêu thích".
-Observed Result: the selected item is not add to "Yêu thích". 
-Expected Result: "Thêm vào giỏ hàng thành công" message is displayed.</t>
-  </si>
-  <si>
     <t>Bug-0006</t>
   </si>
   <si>
     <t>The mobile phone number does not follow the format "+84 xxx xxxxxx".</t>
-  </si>
-  <si>
-    <t>The mobile phone number does not follows the format "+84 xxx xxxxxx".</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web, 
@@ -2039,9 +2011,6 @@
     <t>Bug-0010</t>
   </si>
   <si>
-    <t>Account is valid when user do not active account.</t>
-  </si>
-  <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input information: group05dung8/123456, Dương Tuấn Dũng, dtdung8@gmail.com, An Giang, 12345678, Nam, 11/11/1983
@@ -2070,27 +2039,10 @@
     <t>Bug-0011</t>
   </si>
   <si>
-    <t xml:space="preserve">The textbox's length is used more space in the form. . </t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web, 
-2. Click on "Đăng nhập" link.
-3. Observe the form "Đăng nhập".
-Observed Result: the length of textbox in the form almost equal the width of the page.
-Expected Result: the length of textbox in the form fixed nicely the width of the page.</t>
-  </si>
-  <si>
     <t>Bug-0012</t>
   </si>
   <si>
     <t>User can not select the year before 1970.</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Đăng ký".
-3. Observe the "chọn năm" listbox.
-Observed Result: a fixed year form 1970 to 2018.
-Expected Result: Datetime picker.</t>
   </si>
   <si>
     <t>Bug-0013</t>
@@ -2154,6 +2106,54 @@
 5. Observe account information.
 Observed Result: "Cập nhật thành công" message is displayed.
 Expected Result: Error message is displayed.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. On textbox "Nhập tên sản phẩm cần tìm", input: "acer", click on "Tìm".
+3. Observe the program's result.
+Observed Result: "không có dữ liệu".
+Expected Result: the products name with "acer" is displayed.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. On textbox "Nhập tên sản phẩm cần tìm", input: "acer", press Enter key.
+3. Observe the program's result.
+Observed Result: the homepage is loaded.
+Expected Result: the products name with "acer" is displayed</t>
+  </si>
+  <si>
+    <t>User can not view the product detail by click on the product's image.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web, "section "Bán nhiều nhất".
+2. Click on "yêu thích" button of "Canon 750D + Lens 18-55".
+3. Click on "Yêu thích" button.
+4. Observe the list "Yêu thích".
+Observed Result: the page is reloaded.
+Expected Result: "Thêm vào giỏ hàng thành công" message is displayed.</t>
+  </si>
+  <si>
+    <t>An account is always valid when user do not active account.</t>
+  </si>
+  <si>
+    <t>Account is always valid when user do not active account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The textbox's length use more space in the form. . </t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web, 
+2. Click on "Đăng nhập" link.
+3. Observe the form "Đăng nhập".
+Observed Result: the length of textbox almost equal the width of the page.
+Expected Result: the length of textbox fixed nicely the width of the page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký".
+3. Observe the "chọn năm" listbox.
+Observed Result: a fixed year form 1970 to 2018.
+Expected Result: use Datetime picker for "Ngày sinh" info.</t>
   </si>
 </sst>
 </file>
@@ -2464,11 +2464,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2957,10 +2957,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -4118,7 +4118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -6509,8 +6509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6610,7 +6610,7 @@
       <c r="B7" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>490</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -6626,22 +6626,22 @@
         <v>488</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>496</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>496</v>
+      <c r="C8" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>495</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>492</v>
@@ -6653,75 +6653,75 @@
         <v>488</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>500</v>
+      <c r="C9" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>540</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="165" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>504</v>
+      <c r="C10" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>501</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>492</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>508</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>509</v>
+      <c r="C11" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>504</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>486</v>
@@ -6733,21 +6733,21 @@
         <v>488</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>512</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>512</v>
+      <c r="C12" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>507</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>486</v>
@@ -6759,271 +6759,271 @@
         <v>488</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>515</v>
+      <c r="C13" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>510</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="195" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>519</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>519</v>
+      <c r="C14" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>514</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>492</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>523</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>523</v>
+      <c r="C15" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>543</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>492</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="180" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>525</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>525</v>
+      <c r="C16" s="46" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>519</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>528</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>528</v>
+      <c r="C17" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>544</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C18" s="47" t="s">
-        <v>531</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>531</v>
+      <c r="C18" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>534</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>534</v>
+      <c r="C19" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>525</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>538</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>538</v>
+      <c r="C20" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>529</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C21" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>541</v>
+      <c r="C21" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>532</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="150" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>545</v>
+      <c r="C22" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>536</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E22">
       <formula1>"Critical,Serious, Minor, Tweak"</formula1>
     </dataValidation>

--- a/template-dung/OJT_Template_Group5_User-1234.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TR List" sheetId="2" r:id="rId1"/>
@@ -2068,17 +2068,7 @@
     <t>User can not recovery the password.</t>
   </si>
   <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Đăng nhập".
-4. Observe the form.
-Observed Result: No information for recovery the password.
-Expected Result: "Khôi phục mật khẩu" link is displayed.</t>
-  </si>
-  <si>
     <t>Bug-0015</t>
-  </si>
-  <si>
-    <t>Form "Cập nhật thông tin tải khoản" does not required the update information "Họ tên".</t>
   </si>
   <si>
     <t>Home, Cập nhật tài khoản.</t>
@@ -2096,9 +2086,6 @@
     <t>Bug-0016</t>
   </si>
   <si>
-    <t>Form "Cập nhật thông tin tải khoản" does not required the update information "Địa chỉ".</t>
-  </si>
-  <si>
     <t>1. Navigate to Điện máy đỏ web. User logged in.
 2. Click on "Cập nhật thông tin tài khoản".
 3. Input "Địa chỉ" textbox: blank only.
@@ -2154,6 +2141,19 @@
 3. Observe the "chọn năm" listbox.
 Observed Result: a fixed year form 1970 to 2018.
 Expected Result: use Datetime picker for "Ngày sinh" info.</t>
+  </si>
+  <si>
+    <t>Form "Cập nhật thông tin tải khoản" does not required the information "Địa chỉ".</t>
+  </si>
+  <si>
+    <t>Form "Cập nhật thông tin tải khoản" does not required the information "Họ tên".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập".
+3. Observe the form.
+Observed Result: No information for recovery the password.
+Expected Result: "Khôi phục mật khẩu" link is displayed.</t>
   </si>
 </sst>
 </file>
@@ -2942,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4118,7 +4118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A92" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -6509,8 +6509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6626,7 +6626,7 @@
         <v>488</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I7" s="24"/>
     </row>
@@ -6653,7 +6653,7 @@
         <v>488</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I8" s="24"/>
     </row>
@@ -6668,7 +6668,7 @@
         <v>497</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>486</v>
@@ -6707,7 +6707,7 @@
         <v>488</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.2">
@@ -6822,10 +6822,10 @@
         <v>483</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>492</v>
@@ -6874,10 +6874,10 @@
         <v>483</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>486</v>
@@ -6889,7 +6889,7 @@
         <v>488</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -6915,7 +6915,7 @@
         <v>488</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.2">
@@ -6967,59 +6967,59 @@
         <v>488</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>483</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="150" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>483</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>486</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>488</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
